--- a/Heatmap SB/deb_action/Avant un but/Tableaux/2020_2021/loc_deb_action.xlsx
+++ b/Heatmap SB/deb_action/Avant un but/Tableaux/2020_2021/loc_deb_action.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E769"/>
+  <dimension ref="A1:F769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>match_id</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Top 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -475,6 +480,9 @@
           <t>3766395</t>
         </is>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -495,6 +503,9 @@
         <is>
           <t>3766395</t>
         </is>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -517,6 +528,9 @@
           <t>3764568</t>
         </is>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -538,6 +552,9 @@
           <t>3766372</t>
         </is>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -559,6 +576,9 @@
           <t>3766222</t>
         </is>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -580,6 +600,9 @@
           <t>3766222</t>
         </is>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -601,6 +624,9 @@
           <t>3766364</t>
         </is>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -622,6 +648,9 @@
           <t>3766294</t>
         </is>
       </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -643,6 +672,9 @@
           <t>3766294</t>
         </is>
       </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -664,6 +696,9 @@
           <t>3766355</t>
         </is>
       </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -685,6 +720,9 @@
           <t>3766184</t>
         </is>
       </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -706,6 +744,9 @@
           <t>3766184</t>
         </is>
       </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -727,6 +768,9 @@
           <t>3766184</t>
         </is>
       </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -748,6 +792,9 @@
           <t>3766262</t>
         </is>
       </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -769,6 +816,9 @@
           <t>3766262</t>
         </is>
       </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -790,6 +840,9 @@
           <t>3766371</t>
         </is>
       </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -811,6 +864,9 @@
           <t>3766302</t>
         </is>
       </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -832,6 +888,9 @@
           <t>3766302</t>
         </is>
       </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -853,6 +912,9 @@
           <t>3766342</t>
         </is>
       </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -874,6 +936,9 @@
           <t>3766342</t>
         </is>
       </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -895,6 +960,9 @@
           <t>3766342</t>
         </is>
       </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -916,6 +984,9 @@
           <t>3766342</t>
         </is>
       </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -937,6 +1008,9 @@
           <t>3766337</t>
         </is>
       </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -958,6 +1032,9 @@
           <t>3766337</t>
         </is>
       </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -979,6 +1056,9 @@
           <t>3766337</t>
         </is>
       </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1000,6 +1080,9 @@
           <t>3766337</t>
         </is>
       </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1021,6 +1104,9 @@
           <t>3766347</t>
         </is>
       </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1042,6 +1128,9 @@
           <t>3766347</t>
         </is>
       </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1063,6 +1152,9 @@
           <t>3766341</t>
         </is>
       </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1084,6 +1176,9 @@
           <t>3766341</t>
         </is>
       </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1105,6 +1200,9 @@
           <t>3766363</t>
         </is>
       </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1126,6 +1224,9 @@
           <t>3766363</t>
         </is>
       </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1147,6 +1248,9 @@
           <t>3766363</t>
         </is>
       </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1168,6 +1272,9 @@
           <t>3766351</t>
         </is>
       </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1189,6 +1296,9 @@
           <t>3766324</t>
         </is>
       </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1210,6 +1320,9 @@
           <t>3766324</t>
         </is>
       </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1231,6 +1344,9 @@
           <t>3766324</t>
         </is>
       </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1252,6 +1368,9 @@
           <t>3766324</t>
         </is>
       </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1273,6 +1392,9 @@
           <t>3766324</t>
         </is>
       </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1294,6 +1416,9 @@
           <t>3766304</t>
         </is>
       </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1315,6 +1440,9 @@
           <t>3766304</t>
         </is>
       </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1336,6 +1464,9 @@
           <t>3766304</t>
         </is>
       </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1357,6 +1488,9 @@
           <t>3766353</t>
         </is>
       </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1378,6 +1512,9 @@
           <t>3766353</t>
         </is>
       </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1399,6 +1536,9 @@
           <t>3766353</t>
         </is>
       </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1420,6 +1560,9 @@
           <t>3766322</t>
         </is>
       </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1441,6 +1584,9 @@
           <t>3766322</t>
         </is>
       </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1462,6 +1608,9 @@
           <t>3766323</t>
         </is>
       </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1483,6 +1632,9 @@
           <t>3766317</t>
         </is>
       </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1504,6 +1656,9 @@
           <t>3766317</t>
         </is>
       </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1525,6 +1680,9 @@
           <t>3766303</t>
         </is>
       </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1546,6 +1704,9 @@
           <t>3766305</t>
         </is>
       </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1567,6 +1728,9 @@
           <t>3766305</t>
         </is>
       </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1588,6 +1752,9 @@
           <t>3766328</t>
         </is>
       </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1609,6 +1776,9 @@
           <t>3766329</t>
         </is>
       </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1630,6 +1800,9 @@
           <t>3766329</t>
         </is>
       </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1651,6 +1824,9 @@
           <t>3766348</t>
         </is>
       </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1672,6 +1848,9 @@
           <t>3766258</t>
         </is>
       </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1693,6 +1872,9 @@
           <t>3766258</t>
         </is>
       </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1714,6 +1896,9 @@
           <t>3766258</t>
         </is>
       </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1735,6 +1920,9 @@
           <t>3766256</t>
         </is>
       </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1756,6 +1944,9 @@
           <t>3766256</t>
         </is>
       </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1777,6 +1968,9 @@
           <t>3766260</t>
         </is>
       </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1798,6 +1992,9 @@
           <t>3766260</t>
         </is>
       </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1819,6 +2016,9 @@
           <t>3766260</t>
         </is>
       </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1840,6 +2040,9 @@
           <t>3766260</t>
         </is>
       </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1861,6 +2064,9 @@
           <t>3766260</t>
         </is>
       </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1882,6 +2088,9 @@
           <t>3766260</t>
         </is>
       </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1903,6 +2112,9 @@
           <t>3766251</t>
         </is>
       </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1924,6 +2136,9 @@
           <t>3766251</t>
         </is>
       </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1945,6 +2160,9 @@
           <t>3766259</t>
         </is>
       </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1966,6 +2184,9 @@
           <t>3766259</t>
         </is>
       </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1987,6 +2208,9 @@
           <t>3766259</t>
         </is>
       </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2008,6 +2232,9 @@
           <t>3766279</t>
         </is>
       </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2029,6 +2256,9 @@
           <t>3766279</t>
         </is>
       </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2050,6 +2280,9 @@
           <t>3766279</t>
         </is>
       </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2071,6 +2304,9 @@
           <t>3766279</t>
         </is>
       </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2092,6 +2328,9 @@
           <t>3766279</t>
         </is>
       </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2113,6 +2352,9 @@
           <t>3766279</t>
         </is>
       </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2134,6 +2376,9 @@
           <t>3766266</t>
         </is>
       </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2155,6 +2400,9 @@
           <t>3766266</t>
         </is>
       </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2176,6 +2424,9 @@
           <t>3766266</t>
         </is>
       </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2197,6 +2448,9 @@
           <t>3766266</t>
         </is>
       </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2218,6 +2472,9 @@
           <t>3766264</t>
         </is>
       </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2239,6 +2496,9 @@
           <t>3766264</t>
         </is>
       </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2260,6 +2520,9 @@
           <t>3766264</t>
         </is>
       </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2281,6 +2544,9 @@
           <t>3766269</t>
         </is>
       </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2302,6 +2568,9 @@
           <t>3766269</t>
         </is>
       </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2323,6 +2592,9 @@
           <t>3766269</t>
         </is>
       </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2344,6 +2616,9 @@
           <t>3766249</t>
         </is>
       </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2365,6 +2640,9 @@
           <t>3766249</t>
         </is>
       </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2386,6 +2664,9 @@
           <t>3766249</t>
         </is>
       </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2407,6 +2688,9 @@
           <t>3766249</t>
         </is>
       </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2428,6 +2712,9 @@
           <t>3766267</t>
         </is>
       </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2449,6 +2736,9 @@
           <t>3766263</t>
         </is>
       </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2470,6 +2760,9 @@
           <t>3766263</t>
         </is>
       </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2491,6 +2784,9 @@
           <t>3766263</t>
         </is>
       </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2512,6 +2808,9 @@
           <t>3766286</t>
         </is>
       </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2533,6 +2832,9 @@
           <t>3766237</t>
         </is>
       </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2554,6 +2856,9 @@
           <t>3766237</t>
         </is>
       </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2575,6 +2880,9 @@
           <t>3766237</t>
         </is>
       </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2596,6 +2904,9 @@
           <t>3766237</t>
         </is>
       </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2617,6 +2928,9 @@
           <t>3766237</t>
         </is>
       </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2638,6 +2952,9 @@
           <t>3766206</t>
         </is>
       </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2659,6 +2976,9 @@
           <t>3766206</t>
         </is>
       </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2680,6 +3000,9 @@
           <t>3766236</t>
         </is>
       </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2701,6 +3024,9 @@
           <t>3766236</t>
         </is>
       </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2722,6 +3048,9 @@
           <t>3766236</t>
         </is>
       </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2743,6 +3072,9 @@
           <t>3766210</t>
         </is>
       </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2764,6 +3096,9 @@
           <t>3766210</t>
         </is>
       </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2785,6 +3120,9 @@
           <t>3766210</t>
         </is>
       </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2806,6 +3144,9 @@
           <t>3766210</t>
         </is>
       </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2827,6 +3168,9 @@
           <t>3766210</t>
         </is>
       </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2848,6 +3192,9 @@
           <t>3766210</t>
         </is>
       </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2869,6 +3216,9 @@
           <t>3766217</t>
         </is>
       </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2890,6 +3240,9 @@
           <t>3766217</t>
         </is>
       </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2911,6 +3264,9 @@
           <t>3766261</t>
         </is>
       </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2932,6 +3288,9 @@
           <t>3766261</t>
         </is>
       </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2953,6 +3312,9 @@
           <t>3766214</t>
         </is>
       </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2974,6 +3336,9 @@
           <t>3766219</t>
         </is>
       </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2995,6 +3360,9 @@
           <t>3766219</t>
         </is>
       </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3016,6 +3384,9 @@
           <t>3766219</t>
         </is>
       </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3037,6 +3408,9 @@
           <t>3766227</t>
         </is>
       </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3058,6 +3432,9 @@
           <t>3766227</t>
         </is>
       </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3079,6 +3456,9 @@
           <t>3766244</t>
         </is>
       </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3100,6 +3480,9 @@
           <t>3766244</t>
         </is>
       </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3121,6 +3504,9 @@
           <t>3766244</t>
         </is>
       </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3142,6 +3528,9 @@
           <t>3766244</t>
         </is>
       </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3163,6 +3552,9 @@
           <t>3766244</t>
         </is>
       </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3184,6 +3576,9 @@
           <t>3766265</t>
         </is>
       </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3205,6 +3600,9 @@
           <t>3766265</t>
         </is>
       </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3226,6 +3624,9 @@
           <t>3766265</t>
         </is>
       </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3247,6 +3648,9 @@
           <t>3766257</t>
         </is>
       </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3268,6 +3672,9 @@
           <t>3766257</t>
         </is>
       </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3289,6 +3696,9 @@
           <t>3766257</t>
         </is>
       </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3310,6 +3720,9 @@
           <t>3766257</t>
         </is>
       </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3331,6 +3744,9 @@
           <t>3766268</t>
         </is>
       </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3352,6 +3768,9 @@
           <t>3766268</t>
         </is>
       </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3373,6 +3792,9 @@
           <t>3766268</t>
         </is>
       </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3394,6 +3816,9 @@
           <t>3766216</t>
         </is>
       </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3415,6 +3840,9 @@
           <t>3766216</t>
         </is>
       </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3436,6 +3864,9 @@
           <t>3766246</t>
         </is>
       </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3457,6 +3888,9 @@
           <t>3766246</t>
         </is>
       </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3478,6 +3912,9 @@
           <t>3766196</t>
         </is>
       </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3499,6 +3936,9 @@
           <t>3766196</t>
         </is>
       </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3520,6 +3960,9 @@
           <t>3766190</t>
         </is>
       </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3541,6 +3984,9 @@
           <t>3766190</t>
         </is>
       </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3562,6 +4008,9 @@
           <t>3766192</t>
         </is>
       </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3583,6 +4032,9 @@
           <t>3766192</t>
         </is>
       </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3604,6 +4056,9 @@
           <t>3766179</t>
         </is>
       </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3625,6 +4080,9 @@
           <t>3766179</t>
         </is>
       </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3646,6 +4104,9 @@
           <t>3766179</t>
         </is>
       </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3667,6 +4128,9 @@
           <t>3766177</t>
         </is>
       </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3688,6 +4152,9 @@
           <t>3766177</t>
         </is>
       </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3709,6 +4176,9 @@
           <t>3766178</t>
         </is>
       </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3730,6 +4200,9 @@
           <t>3766178</t>
         </is>
       </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3751,6 +4224,9 @@
           <t>3766178</t>
         </is>
       </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3772,6 +4248,9 @@
           <t>3766178</t>
         </is>
       </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3793,6 +4272,9 @@
           <t>3766178</t>
         </is>
       </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3814,6 +4296,9 @@
           <t>3766178</t>
         </is>
       </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3835,6 +4320,9 @@
           <t>3766239</t>
         </is>
       </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3856,6 +4344,9 @@
           <t>3766239</t>
         </is>
       </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3877,6 +4368,9 @@
           <t>3766129</t>
         </is>
       </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3898,6 +4392,9 @@
           <t>3766151</t>
         </is>
       </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3919,6 +4416,9 @@
           <t>3766149</t>
         </is>
       </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3940,6 +4440,9 @@
           <t>3766166</t>
         </is>
       </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3961,6 +4464,9 @@
           <t>3766166</t>
         </is>
       </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3982,6 +4488,9 @@
           <t>3766134</t>
         </is>
       </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4003,6 +4512,9 @@
           <t>3766134</t>
         </is>
       </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4024,6 +4536,9 @@
           <t>3766134</t>
         </is>
       </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4045,6 +4560,9 @@
           <t>3766134</t>
         </is>
       </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4066,6 +4584,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4087,6 +4608,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4108,6 +4632,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4129,6 +4656,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4150,6 +4680,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4171,6 +4704,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4192,6 +4728,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4213,6 +4752,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4234,6 +4776,9 @@
           <t>3766144</t>
         </is>
       </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4255,6 +4800,9 @@
           <t>3766142</t>
         </is>
       </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4276,6 +4824,9 @@
           <t>3766142</t>
         </is>
       </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4297,6 +4848,9 @@
           <t>3766142</t>
         </is>
       </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4318,6 +4872,9 @@
           <t>3766142</t>
         </is>
       </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4339,6 +4896,9 @@
           <t>3766137</t>
         </is>
       </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4360,6 +4920,9 @@
           <t>3766137</t>
         </is>
       </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4381,6 +4944,9 @@
           <t>3766137</t>
         </is>
       </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4402,6 +4968,9 @@
           <t>3766137</t>
         </is>
       </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4423,6 +4992,9 @@
           <t>3766137</t>
         </is>
       </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4444,6 +5016,9 @@
           <t>3766161</t>
         </is>
       </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4465,6 +5040,9 @@
           <t>3766161</t>
         </is>
       </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4486,6 +5064,9 @@
           <t>3766152</t>
         </is>
       </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4507,6 +5088,9 @@
           <t>3766152</t>
         </is>
       </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4528,6 +5112,9 @@
           <t>3766163</t>
         </is>
       </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4549,6 +5136,9 @@
           <t>3766163</t>
         </is>
       </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4570,6 +5160,9 @@
           <t>3766163</t>
         </is>
       </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4591,6 +5184,9 @@
           <t>3766157</t>
         </is>
       </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4612,6 +5208,9 @@
           <t>3766119</t>
         </is>
       </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4633,6 +5232,9 @@
           <t>3766114</t>
         </is>
       </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4654,6 +5256,9 @@
           <t>3766135</t>
         </is>
       </c>
+      <c r="F201" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4675,6 +5280,9 @@
           <t>3766135</t>
         </is>
       </c>
+      <c r="F202" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4696,6 +5304,9 @@
           <t>3766135</t>
         </is>
       </c>
+      <c r="F203" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4717,6 +5328,9 @@
           <t>3766116</t>
         </is>
       </c>
+      <c r="F204" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4738,6 +5352,9 @@
           <t>3766116</t>
         </is>
       </c>
+      <c r="F205" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4759,6 +5376,9 @@
           <t>3766116</t>
         </is>
       </c>
+      <c r="F206" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4780,6 +5400,9 @@
           <t>3766105</t>
         </is>
       </c>
+      <c r="F207" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4801,6 +5424,9 @@
           <t>3766105</t>
         </is>
       </c>
+      <c r="F208" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4822,6 +5448,9 @@
           <t>3766105</t>
         </is>
       </c>
+      <c r="F209" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4843,6 +5472,9 @@
           <t>3766105</t>
         </is>
       </c>
+      <c r="F210" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4864,6 +5496,9 @@
           <t>3766091</t>
         </is>
       </c>
+      <c r="F211" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4885,6 +5520,9 @@
           <t>3766115</t>
         </is>
       </c>
+      <c r="F212" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4906,6 +5544,9 @@
           <t>3766115</t>
         </is>
       </c>
+      <c r="F213" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4927,6 +5568,9 @@
           <t>3766115</t>
         </is>
       </c>
+      <c r="F214" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4948,6 +5592,9 @@
           <t>3766081</t>
         </is>
       </c>
+      <c r="F215" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4969,6 +5616,9 @@
           <t>3766081</t>
         </is>
       </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4990,6 +5640,9 @@
           <t>3766092</t>
         </is>
       </c>
+      <c r="F217" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5011,6 +5664,9 @@
           <t>3766092</t>
         </is>
       </c>
+      <c r="F218" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5032,6 +5688,9 @@
           <t>3766092</t>
         </is>
       </c>
+      <c r="F219" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5053,6 +5712,9 @@
           <t>3766093</t>
         </is>
       </c>
+      <c r="F220" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5074,6 +5736,9 @@
           <t>3766093</t>
         </is>
       </c>
+      <c r="F221" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5095,6 +5760,9 @@
           <t>3766078</t>
         </is>
       </c>
+      <c r="F222" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5116,6 +5784,9 @@
           <t>3766078</t>
         </is>
       </c>
+      <c r="F223" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5137,6 +5808,9 @@
           <t>3766078</t>
         </is>
       </c>
+      <c r="F224" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5158,6 +5832,9 @@
           <t>3766085</t>
         </is>
       </c>
+      <c r="F225" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5179,6 +5856,9 @@
           <t>3766085</t>
         </is>
       </c>
+      <c r="F226" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5200,6 +5880,9 @@
           <t>3766085</t>
         </is>
       </c>
+      <c r="F227" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5221,6 +5904,9 @@
           <t>3766118</t>
         </is>
       </c>
+      <c r="F228" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5242,6 +5928,9 @@
           <t>3766118</t>
         </is>
       </c>
+      <c r="F229" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5263,6 +5952,9 @@
           <t>3766118</t>
         </is>
       </c>
+      <c r="F230" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5284,6 +5976,9 @@
           <t>3766076</t>
         </is>
       </c>
+      <c r="F231" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5305,6 +6000,9 @@
           <t>3766076</t>
         </is>
       </c>
+      <c r="F232" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5326,6 +6024,9 @@
           <t>3766083</t>
         </is>
       </c>
+      <c r="F233" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5347,6 +6048,9 @@
           <t>3766083</t>
         </is>
       </c>
+      <c r="F234" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5368,6 +6072,9 @@
           <t>3766083</t>
         </is>
       </c>
+      <c r="F235" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5389,6 +6096,9 @@
           <t>3766101</t>
         </is>
       </c>
+      <c r="F236" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5410,6 +6120,9 @@
           <t>3766073</t>
         </is>
       </c>
+      <c r="F237" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5431,6 +6144,9 @@
           <t>3766073</t>
         </is>
       </c>
+      <c r="F238" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5452,6 +6168,9 @@
           <t>3766073</t>
         </is>
       </c>
+      <c r="F239" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5473,6 +6192,9 @@
           <t>3766073</t>
         </is>
       </c>
+      <c r="F240" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5494,6 +6216,9 @@
           <t>3766090</t>
         </is>
       </c>
+      <c r="F241" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5515,6 +6240,9 @@
           <t>3766086</t>
         </is>
       </c>
+      <c r="F242" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5536,6 +6264,9 @@
           <t>3766086</t>
         </is>
       </c>
+      <c r="F243" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5557,6 +6288,9 @@
           <t>3766074</t>
         </is>
       </c>
+      <c r="F244" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5578,6 +6312,9 @@
           <t>3766102</t>
         </is>
       </c>
+      <c r="F245" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5599,6 +6336,9 @@
           <t>3766098</t>
         </is>
       </c>
+      <c r="F246" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -5620,6 +6360,9 @@
           <t>3766098</t>
         </is>
       </c>
+      <c r="F247" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5641,6 +6384,9 @@
           <t>3766315</t>
         </is>
       </c>
+      <c r="F248" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5662,6 +6408,9 @@
           <t>3766315</t>
         </is>
       </c>
+      <c r="F249" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5683,6 +6432,9 @@
           <t>3766315</t>
         </is>
       </c>
+      <c r="F250" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5704,6 +6456,9 @@
           <t>3764570</t>
         </is>
       </c>
+      <c r="F251" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5725,6 +6480,9 @@
           <t>3764570</t>
         </is>
       </c>
+      <c r="F252" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5746,6 +6504,9 @@
           <t>3756302</t>
         </is>
       </c>
+      <c r="F253" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5767,6 +6528,9 @@
           <t>3756297</t>
         </is>
       </c>
+      <c r="F254" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5788,6 +6552,9 @@
           <t>3756295</t>
         </is>
       </c>
+      <c r="F255" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5809,6 +6576,9 @@
           <t>3756295</t>
         </is>
       </c>
+      <c r="F256" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5830,6 +6600,9 @@
           <t>3756295</t>
         </is>
       </c>
+      <c r="F257" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5851,6 +6624,9 @@
           <t>3756300</t>
         </is>
       </c>
+      <c r="F258" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5872,6 +6648,9 @@
           <t>3756300</t>
         </is>
       </c>
+      <c r="F259" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5893,6 +6672,9 @@
           <t>3756300</t>
         </is>
       </c>
+      <c r="F260" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5914,6 +6696,9 @@
           <t>3756300</t>
         </is>
       </c>
+      <c r="F261" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5935,6 +6720,9 @@
           <t>3756300</t>
         </is>
       </c>
+      <c r="F262" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5956,6 +6744,9 @@
           <t>3756300</t>
         </is>
       </c>
+      <c r="F263" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5977,6 +6768,9 @@
           <t>3756300</t>
         </is>
       </c>
+      <c r="F264" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5998,6 +6792,9 @@
           <t>3756300</t>
         </is>
       </c>
+      <c r="F265" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -6019,6 +6816,9 @@
           <t>3766357</t>
         </is>
       </c>
+      <c r="F266" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -6040,6 +6840,9 @@
           <t>3766247</t>
         </is>
       </c>
+      <c r="F267" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -6061,6 +6864,9 @@
           <t>3766247</t>
         </is>
       </c>
+      <c r="F268" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -6082,6 +6888,9 @@
           <t>3766247</t>
         </is>
       </c>
+      <c r="F269" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -6103,6 +6912,9 @@
           <t>3766247</t>
         </is>
       </c>
+      <c r="F270" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -6124,6 +6936,9 @@
           <t>3766358</t>
         </is>
       </c>
+      <c r="F271" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -6145,6 +6960,9 @@
           <t>3766401</t>
         </is>
       </c>
+      <c r="F272" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -6166,6 +6984,9 @@
           <t>3766401</t>
         </is>
       </c>
+      <c r="F273" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -6187,6 +7008,9 @@
           <t>3766272</t>
         </is>
       </c>
+      <c r="F274" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -6208,6 +7032,9 @@
           <t>3755552</t>
         </is>
       </c>
+      <c r="F275" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -6229,6 +7056,9 @@
           <t>3766398</t>
         </is>
       </c>
+      <c r="F276" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -6250,6 +7080,9 @@
           <t>3766107</t>
         </is>
       </c>
+      <c r="F277" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6271,6 +7104,9 @@
           <t>3766132</t>
         </is>
       </c>
+      <c r="F278" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -6292,6 +7128,9 @@
           <t>3766283</t>
         </is>
       </c>
+      <c r="F279" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6313,6 +7152,9 @@
           <t>3766234</t>
         </is>
       </c>
+      <c r="F280" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6334,6 +7176,9 @@
           <t>3766234</t>
         </is>
       </c>
+      <c r="F281" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6355,6 +7200,9 @@
           <t>3766234</t>
         </is>
       </c>
+      <c r="F282" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6376,6 +7224,9 @@
           <t>3766205</t>
         </is>
       </c>
+      <c r="F283" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6397,6 +7248,9 @@
           <t>3766205</t>
         </is>
       </c>
+      <c r="F284" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6418,6 +7272,9 @@
           <t>3766205</t>
         </is>
       </c>
+      <c r="F285" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -6439,6 +7296,9 @@
           <t>3766186</t>
         </is>
       </c>
+      <c r="F286" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -6460,6 +7320,9 @@
           <t>3766186</t>
         </is>
       </c>
+      <c r="F287" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -6481,6 +7344,9 @@
           <t>3766186</t>
         </is>
       </c>
+      <c r="F288" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6502,6 +7368,9 @@
           <t>3766130</t>
         </is>
       </c>
+      <c r="F289" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6523,6 +7392,9 @@
           <t>3766130</t>
         </is>
       </c>
+      <c r="F290" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6544,6 +7416,9 @@
           <t>3764697</t>
         </is>
       </c>
+      <c r="F291" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -6565,6 +7440,9 @@
           <t>3764575</t>
         </is>
       </c>
+      <c r="F292" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6586,6 +7464,9 @@
           <t>3764575</t>
         </is>
       </c>
+      <c r="F293" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -6607,6 +7488,9 @@
           <t>3764575</t>
         </is>
       </c>
+      <c r="F294" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -6628,6 +7512,9 @@
           <t>3764573</t>
         </is>
       </c>
+      <c r="F295" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6649,6 +7536,9 @@
           <t>3766181</t>
         </is>
       </c>
+      <c r="F296" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6670,6 +7560,9 @@
           <t>3766181</t>
         </is>
       </c>
+      <c r="F297" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -6691,6 +7584,9 @@
           <t>3766181</t>
         </is>
       </c>
+      <c r="F298" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -6712,6 +7608,9 @@
           <t>3766374</t>
         </is>
       </c>
+      <c r="F299" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -6733,6 +7632,9 @@
           <t>3766374</t>
         </is>
       </c>
+      <c r="F300" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -6754,6 +7656,9 @@
           <t>3766374</t>
         </is>
       </c>
+      <c r="F301" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -6775,6 +7680,9 @@
           <t>3766374</t>
         </is>
       </c>
+      <c r="F302" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -6796,6 +7704,9 @@
           <t>3766301</t>
         </is>
       </c>
+      <c r="F303" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -6817,6 +7728,9 @@
           <t>3766301</t>
         </is>
       </c>
+      <c r="F304" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -6838,6 +7752,9 @@
           <t>3766301</t>
         </is>
       </c>
+      <c r="F305" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -6859,6 +7776,9 @@
           <t>3766301</t>
         </is>
       </c>
+      <c r="F306" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -6880,6 +7800,9 @@
           <t>3766293</t>
         </is>
       </c>
+      <c r="F307" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -6901,6 +7824,9 @@
           <t>3766293</t>
         </is>
       </c>
+      <c r="F308" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -6922,6 +7848,9 @@
           <t>3766293</t>
         </is>
       </c>
+      <c r="F309" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -6943,6 +7872,9 @@
           <t>3766293</t>
         </is>
       </c>
+      <c r="F310" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -6964,6 +7896,9 @@
           <t>3766293</t>
         </is>
       </c>
+      <c r="F311" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -6985,6 +7920,9 @@
           <t>3766220</t>
         </is>
       </c>
+      <c r="F312" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -7006,6 +7944,9 @@
           <t>3764184</t>
         </is>
       </c>
+      <c r="F313" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -7027,6 +7968,9 @@
           <t>3764187</t>
         </is>
       </c>
+      <c r="F314" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -7048,6 +7992,9 @@
           <t>3764187</t>
         </is>
       </c>
+      <c r="F315" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -7069,6 +8016,9 @@
           <t>3764187</t>
         </is>
       </c>
+      <c r="F316" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -7090,6 +8040,9 @@
           <t>3764181</t>
         </is>
       </c>
+      <c r="F317" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -7111,6 +8064,9 @@
           <t>3764181</t>
         </is>
       </c>
+      <c r="F318" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -7132,6 +8088,9 @@
           <t>3764181</t>
         </is>
       </c>
+      <c r="F319" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -7153,6 +8112,9 @@
           <t>3764180</t>
         </is>
       </c>
+      <c r="F320" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -7174,6 +8136,9 @@
           <t>3764180</t>
         </is>
       </c>
+      <c r="F321" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -7195,6 +8160,9 @@
           <t>3764180</t>
         </is>
       </c>
+      <c r="F322" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -7216,6 +8184,9 @@
           <t>3764186</t>
         </is>
       </c>
+      <c r="F323" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -7237,6 +8208,9 @@
           <t>3756288</t>
         </is>
       </c>
+      <c r="F324" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -7258,6 +8232,9 @@
           <t>3756288</t>
         </is>
       </c>
+      <c r="F325" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -7279,6 +8256,9 @@
           <t>3756288</t>
         </is>
       </c>
+      <c r="F326" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -7300,6 +8280,9 @@
           <t>3756283</t>
         </is>
       </c>
+      <c r="F327" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -7321,6 +8304,9 @@
           <t>3766393</t>
         </is>
       </c>
+      <c r="F328" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -7342,6 +8328,9 @@
           <t>3766393</t>
         </is>
       </c>
+      <c r="F329" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -7363,6 +8352,9 @@
           <t>3766393</t>
         </is>
       </c>
+      <c r="F330" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -7384,6 +8376,9 @@
           <t>3766393</t>
         </is>
       </c>
+      <c r="F331" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -7405,6 +8400,9 @@
           <t>3766202</t>
         </is>
       </c>
+      <c r="F332" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -7426,6 +8424,9 @@
           <t>3766202</t>
         </is>
       </c>
+      <c r="F333" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -7447,6 +8448,9 @@
           <t>3766202</t>
         </is>
       </c>
+      <c r="F334" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -7468,6 +8472,9 @@
           <t>3766202</t>
         </is>
       </c>
+      <c r="F335" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -7489,6 +8496,9 @@
           <t>3766202</t>
         </is>
       </c>
+      <c r="F336" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -7510,6 +8520,9 @@
           <t>3766229</t>
         </is>
       </c>
+      <c r="F337" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -7531,6 +8544,9 @@
           <t>3766229</t>
         </is>
       </c>
+      <c r="F338" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -7552,6 +8568,9 @@
           <t>3766312</t>
         </is>
       </c>
+      <c r="F339" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -7573,6 +8592,9 @@
           <t>3766287</t>
         </is>
       </c>
+      <c r="F340" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -7594,6 +8616,9 @@
           <t>3766110</t>
         </is>
       </c>
+      <c r="F341" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -7615,6 +8640,9 @@
           <t>3766224</t>
         </is>
       </c>
+      <c r="F342" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -7636,6 +8664,9 @@
           <t>3766218</t>
         </is>
       </c>
+      <c r="F343" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -7657,6 +8688,9 @@
           <t>3766218</t>
         </is>
       </c>
+      <c r="F344" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -7678,6 +8712,9 @@
           <t>3766218</t>
         </is>
       </c>
+      <c r="F345" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -7699,6 +8736,9 @@
           <t>3766218</t>
         </is>
       </c>
+      <c r="F346" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -7720,6 +8760,9 @@
           <t>3766218</t>
         </is>
       </c>
+      <c r="F347" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -7741,6 +8784,9 @@
           <t>3766278</t>
         </is>
       </c>
+      <c r="F348" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -7762,6 +8808,9 @@
           <t>3766199</t>
         </is>
       </c>
+      <c r="F349" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -7783,6 +8832,9 @@
           <t>3766199</t>
         </is>
       </c>
+      <c r="F350" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -7804,6 +8856,9 @@
           <t>3756285</t>
         </is>
       </c>
+      <c r="F351" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -7825,6 +8880,9 @@
           <t>3756290</t>
         </is>
       </c>
+      <c r="F352" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -7846,6 +8904,9 @@
           <t>3756287</t>
         </is>
       </c>
+      <c r="F353" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -7867,6 +8928,9 @@
           <t>3766326</t>
         </is>
       </c>
+      <c r="F354" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -7888,6 +8952,9 @@
           <t>3766172</t>
         </is>
       </c>
+      <c r="F355" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -7909,6 +8976,9 @@
           <t>3766191</t>
         </is>
       </c>
+      <c r="F356" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -7930,6 +9000,9 @@
           <t>3766191</t>
         </is>
       </c>
+      <c r="F357" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -7951,6 +9024,9 @@
           <t>3791653</t>
         </is>
       </c>
+      <c r="F358" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -7972,6 +9048,9 @@
           <t>3791653</t>
         </is>
       </c>
+      <c r="F359" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -7993,6 +9072,9 @@
           <t>3766379</t>
         </is>
       </c>
+      <c r="F360" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -8014,6 +9096,9 @@
           <t>3766379</t>
         </is>
       </c>
+      <c r="F361" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -8035,6 +9120,9 @@
           <t>3766334</t>
         </is>
       </c>
+      <c r="F362" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -8056,6 +9144,9 @@
           <t>3766334</t>
         </is>
       </c>
+      <c r="F363" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -8077,6 +9168,9 @@
           <t>3766334</t>
         </is>
       </c>
+      <c r="F364" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -8098,6 +9192,9 @@
           <t>3766334</t>
         </is>
       </c>
+      <c r="F365" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -8119,6 +9216,9 @@
           <t>3766140</t>
         </is>
       </c>
+      <c r="F366" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -8140,6 +9240,9 @@
           <t>3766158</t>
         </is>
       </c>
+      <c r="F367" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -8161,6 +9264,9 @@
           <t>3766158</t>
         </is>
       </c>
+      <c r="F368" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -8182,6 +9288,9 @@
           <t>3766344</t>
         </is>
       </c>
+      <c r="F369" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -8203,6 +9312,9 @@
           <t>3766344</t>
         </is>
       </c>
+      <c r="F370" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -8224,6 +9336,9 @@
           <t>3766344</t>
         </is>
       </c>
+      <c r="F371" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -8245,6 +9360,9 @@
           <t>3766156</t>
         </is>
       </c>
+      <c r="F372" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -8266,6 +9384,9 @@
           <t>3766156</t>
         </is>
       </c>
+      <c r="F373" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -8287,6 +9408,9 @@
           <t>3766156</t>
         </is>
       </c>
+      <c r="F374" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -8308,6 +9432,9 @@
           <t>3766156</t>
         </is>
       </c>
+      <c r="F375" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -8329,6 +9456,9 @@
           <t>3766296</t>
         </is>
       </c>
+      <c r="F376" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -8350,6 +9480,9 @@
           <t>3766296</t>
         </is>
       </c>
+      <c r="F377" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -8371,6 +9504,9 @@
           <t>3766320</t>
         </is>
       </c>
+      <c r="F378" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -8392,6 +9528,9 @@
           <t>3766320</t>
         </is>
       </c>
+      <c r="F379" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -8413,6 +9552,9 @@
           <t>3766320</t>
         </is>
       </c>
+      <c r="F380" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -8434,6 +9576,9 @@
           <t>3766406</t>
         </is>
       </c>
+      <c r="F381" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -8455,6 +9600,9 @@
           <t>3766406</t>
         </is>
       </c>
+      <c r="F382" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -8476,6 +9624,9 @@
           <t>3766215</t>
         </is>
       </c>
+      <c r="F383" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -8497,6 +9648,9 @@
           <t>3766343</t>
         </is>
       </c>
+      <c r="F384" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -8518,6 +9672,9 @@
           <t>3766343</t>
         </is>
       </c>
+      <c r="F385" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -8539,6 +9696,9 @@
           <t>3766343</t>
         </is>
       </c>
+      <c r="F386" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -8560,6 +9720,9 @@
           <t>3766343</t>
         </is>
       </c>
+      <c r="F387" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -8581,6 +9744,9 @@
           <t>3766343</t>
         </is>
       </c>
+      <c r="F388" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -8602,6 +9768,9 @@
           <t>3766188</t>
         </is>
       </c>
+      <c r="F389" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -8623,6 +9792,9 @@
           <t>3766188</t>
         </is>
       </c>
+      <c r="F390" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -8644,6 +9816,9 @@
           <t>3766188</t>
         </is>
       </c>
+      <c r="F391" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -8665,6 +9840,9 @@
           <t>3766333</t>
         </is>
       </c>
+      <c r="F392" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -8686,6 +9864,9 @@
           <t>3766361</t>
         </is>
       </c>
+      <c r="F393" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -8707,6 +9888,9 @@
           <t>3766361</t>
         </is>
       </c>
+      <c r="F394" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -8728,6 +9912,9 @@
           <t>3766120</t>
         </is>
       </c>
+      <c r="F395" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -8749,6 +9936,9 @@
           <t>3766120</t>
         </is>
       </c>
+      <c r="F396" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -8770,6 +9960,9 @@
           <t>3766120</t>
         </is>
       </c>
+      <c r="F397" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -8791,6 +9984,9 @@
           <t>3766120</t>
         </is>
       </c>
+      <c r="F398" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -8812,6 +10008,9 @@
           <t>3766120</t>
         </is>
       </c>
+      <c r="F399" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -8833,6 +10032,9 @@
           <t>3766384</t>
         </is>
       </c>
+      <c r="F400" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -8854,6 +10056,9 @@
           <t>3766384</t>
         </is>
       </c>
+      <c r="F401" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -8875,6 +10080,9 @@
           <t>3766384</t>
         </is>
       </c>
+      <c r="F402" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -8896,6 +10104,9 @@
           <t>3766384</t>
         </is>
       </c>
+      <c r="F403" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -8917,6 +10128,9 @@
           <t>3766366</t>
         </is>
       </c>
+      <c r="F404" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -8938,6 +10152,9 @@
           <t>3766366</t>
         </is>
       </c>
+      <c r="F405" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -8959,6 +10176,9 @@
           <t>3766160</t>
         </is>
       </c>
+      <c r="F406" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -8980,6 +10200,9 @@
           <t>3766160</t>
         </is>
       </c>
+      <c r="F407" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -9001,6 +10224,9 @@
           <t>3766228</t>
         </is>
       </c>
+      <c r="F408" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -9022,6 +10248,9 @@
           <t>3766170</t>
         </is>
       </c>
+      <c r="F409" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -9043,6 +10272,9 @@
           <t>3766170</t>
         </is>
       </c>
+      <c r="F410" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -9064,6 +10296,9 @@
           <t>3766307</t>
         </is>
       </c>
+      <c r="F411" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -9085,6 +10320,9 @@
           <t>3766307</t>
         </is>
       </c>
+      <c r="F412" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -9106,6 +10344,9 @@
           <t>3766307</t>
         </is>
       </c>
+      <c r="F413" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -9127,6 +10368,9 @@
           <t>3766376</t>
         </is>
       </c>
+      <c r="F414" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -9148,6 +10392,9 @@
           <t>3766383</t>
         </is>
       </c>
+      <c r="F415" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -9169,6 +10416,9 @@
           <t>3766383</t>
         </is>
       </c>
+      <c r="F416" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -9190,6 +10440,9 @@
           <t>3766383</t>
         </is>
       </c>
+      <c r="F417" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -9211,6 +10464,9 @@
           <t>3766309</t>
         </is>
       </c>
+      <c r="F418" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -9232,6 +10488,9 @@
           <t>3766309</t>
         </is>
       </c>
+      <c r="F419" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -9253,6 +10512,9 @@
           <t>3766176</t>
         </is>
       </c>
+      <c r="F420" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -9274,6 +10536,9 @@
           <t>3766176</t>
         </is>
       </c>
+      <c r="F421" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -9295,6 +10560,9 @@
           <t>3766176</t>
         </is>
       </c>
+      <c r="F422" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -9316,6 +10584,9 @@
           <t>3766077</t>
         </is>
       </c>
+      <c r="F423" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -9337,6 +10608,9 @@
           <t>3766111</t>
         </is>
       </c>
+      <c r="F424" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -9358,6 +10632,9 @@
           <t>3766128</t>
         </is>
       </c>
+      <c r="F425" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -9379,6 +10656,9 @@
           <t>3766128</t>
         </is>
       </c>
+      <c r="F426" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -9400,6 +10680,9 @@
           <t>3766128</t>
         </is>
       </c>
+      <c r="F427" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -9421,6 +10704,9 @@
           <t>3766128</t>
         </is>
       </c>
+      <c r="F428" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -9442,6 +10728,9 @@
           <t>3766203</t>
         </is>
       </c>
+      <c r="F429" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -9463,6 +10752,9 @@
           <t>3766203</t>
         </is>
       </c>
+      <c r="F430" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -9484,6 +10776,9 @@
           <t>3766203</t>
         </is>
       </c>
+      <c r="F431" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -9505,6 +10800,9 @@
           <t>3766203</t>
         </is>
       </c>
+      <c r="F432" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -9526,6 +10824,9 @@
           <t>3766306</t>
         </is>
       </c>
+      <c r="F433" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -9547,6 +10848,9 @@
           <t>3766306</t>
         </is>
       </c>
+      <c r="F434" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -9568,6 +10872,9 @@
           <t>3766125</t>
         </is>
       </c>
+      <c r="F435" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -9589,6 +10896,9 @@
           <t>3766125</t>
         </is>
       </c>
+      <c r="F436" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -9610,6 +10920,9 @@
           <t>3766125</t>
         </is>
       </c>
+      <c r="F437" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -9631,6 +10944,9 @@
           <t>3766125</t>
         </is>
       </c>
+      <c r="F438" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -9652,6 +10968,9 @@
           <t>3766125</t>
         </is>
       </c>
+      <c r="F439" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -9673,6 +10992,9 @@
           <t>3766125</t>
         </is>
       </c>
+      <c r="F440" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -9694,6 +11016,9 @@
           <t>3766201</t>
         </is>
       </c>
+      <c r="F441" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -9715,6 +11040,9 @@
           <t>3766201</t>
         </is>
       </c>
+      <c r="F442" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -9736,6 +11064,9 @@
           <t>3766171</t>
         </is>
       </c>
+      <c r="F443" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -9757,6 +11088,9 @@
           <t>3766171</t>
         </is>
       </c>
+      <c r="F444" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -9778,6 +11112,9 @@
           <t>3766171</t>
         </is>
       </c>
+      <c r="F445" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -9799,6 +11136,9 @@
           <t>3766171</t>
         </is>
       </c>
+      <c r="F446" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -9820,6 +11160,9 @@
           <t>3766082</t>
         </is>
       </c>
+      <c r="F447" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -9841,6 +11184,9 @@
           <t>3766072</t>
         </is>
       </c>
+      <c r="F448" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -9862,6 +11208,9 @@
           <t>3766072</t>
         </is>
       </c>
+      <c r="F449" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -9883,6 +11232,9 @@
           <t>3766072</t>
         </is>
       </c>
+      <c r="F450" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -9904,6 +11256,9 @@
           <t>3766072</t>
         </is>
       </c>
+      <c r="F451" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -9925,6 +11280,9 @@
           <t>3766072</t>
         </is>
       </c>
+      <c r="F452" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -9946,6 +11304,9 @@
           <t>3766072</t>
         </is>
       </c>
+      <c r="F453" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -9967,6 +11328,9 @@
           <t>3766072</t>
         </is>
       </c>
+      <c r="F454" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -9988,6 +11352,9 @@
           <t>3766253</t>
         </is>
       </c>
+      <c r="F455" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -10009,6 +11376,9 @@
           <t>3766288</t>
         </is>
       </c>
+      <c r="F456" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -10030,6 +11400,9 @@
           <t>3766288</t>
         </is>
       </c>
+      <c r="F457" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -10051,6 +11424,9 @@
           <t>3755554</t>
         </is>
       </c>
+      <c r="F458" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -10072,6 +11448,9 @@
           <t>3766113</t>
         </is>
       </c>
+      <c r="F459" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -10093,6 +11472,9 @@
           <t>3766113</t>
         </is>
       </c>
+      <c r="F460" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -10114,6 +11496,9 @@
           <t>3766113</t>
         </is>
       </c>
+      <c r="F461" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -10135,6 +11520,9 @@
           <t>3766173</t>
         </is>
       </c>
+      <c r="F462" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -10156,6 +11544,9 @@
           <t>3766173</t>
         </is>
       </c>
+      <c r="F463" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -10177,6 +11568,9 @@
           <t>3755551</t>
         </is>
       </c>
+      <c r="F464" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -10198,6 +11592,9 @@
           <t>3755551</t>
         </is>
       </c>
+      <c r="F465" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -10219,6 +11616,9 @@
           <t>3766175</t>
         </is>
       </c>
+      <c r="F466" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -10240,6 +11640,9 @@
           <t>3766175</t>
         </is>
       </c>
+      <c r="F467" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -10261,6 +11664,9 @@
           <t>3766175</t>
         </is>
       </c>
+      <c r="F468" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -10282,6 +11688,9 @@
           <t>3766175</t>
         </is>
       </c>
+      <c r="F469" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -10303,6 +11712,9 @@
           <t>3766175</t>
         </is>
       </c>
+      <c r="F470" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -10324,6 +11736,9 @@
           <t>3766187</t>
         </is>
       </c>
+      <c r="F471" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -10345,6 +11760,9 @@
           <t>3766187</t>
         </is>
       </c>
+      <c r="F472" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -10366,6 +11784,9 @@
           <t>3766094</t>
         </is>
       </c>
+      <c r="F473" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -10387,6 +11808,9 @@
           <t>3766094</t>
         </is>
       </c>
+      <c r="F474" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -10408,6 +11832,9 @@
           <t>3766318</t>
         </is>
       </c>
+      <c r="F475" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -10429,6 +11856,9 @@
           <t>3766318</t>
         </is>
       </c>
+      <c r="F476" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -10450,6 +11880,9 @@
           <t>3766275</t>
         </is>
       </c>
+      <c r="F477" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -10471,6 +11904,9 @@
           <t>3766275</t>
         </is>
       </c>
+      <c r="F478" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -10492,6 +11928,9 @@
           <t>3766275</t>
         </is>
       </c>
+      <c r="F479" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -10513,6 +11952,9 @@
           <t>3766275</t>
         </is>
       </c>
+      <c r="F480" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -10534,6 +11976,9 @@
           <t>3791800</t>
         </is>
       </c>
+      <c r="F481" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -10555,6 +12000,9 @@
           <t>3791800</t>
         </is>
       </c>
+      <c r="F482" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -10576,6 +12024,9 @@
           <t>3791800</t>
         </is>
       </c>
+      <c r="F483" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -10597,6 +12048,9 @@
           <t>3756296</t>
         </is>
       </c>
+      <c r="F484" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -10618,6 +12072,9 @@
           <t>3756296</t>
         </is>
       </c>
+      <c r="F485" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -10639,6 +12096,9 @@
           <t>3756293</t>
         </is>
       </c>
+      <c r="F486" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -10660,6 +12120,9 @@
           <t>3756293</t>
         </is>
       </c>
+      <c r="F487" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -10681,6 +12144,9 @@
           <t>3756293</t>
         </is>
       </c>
+      <c r="F488" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -10702,6 +12168,9 @@
           <t>3756293</t>
         </is>
       </c>
+      <c r="F489" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -10723,6 +12192,9 @@
           <t>3756299</t>
         </is>
       </c>
+      <c r="F490" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -10744,6 +12216,9 @@
           <t>3756303</t>
         </is>
       </c>
+      <c r="F491" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -10765,6 +12240,9 @@
           <t>3756303</t>
         </is>
       </c>
+      <c r="F492" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -10786,6 +12264,9 @@
           <t>3756298</t>
         </is>
       </c>
+      <c r="F493" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -10807,6 +12288,9 @@
           <t>3756298</t>
         </is>
       </c>
+      <c r="F494" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -10828,6 +12312,9 @@
           <t>3756298</t>
         </is>
       </c>
+      <c r="F495" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -10849,6 +12336,9 @@
           <t>3756291</t>
         </is>
       </c>
+      <c r="F496" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -10870,6 +12360,9 @@
           <t>3756291</t>
         </is>
       </c>
+      <c r="F497" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -10891,6 +12384,9 @@
           <t>3756289</t>
         </is>
       </c>
+      <c r="F498" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -10912,6 +12408,9 @@
           <t>3766212</t>
         </is>
       </c>
+      <c r="F499" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -10933,6 +12432,9 @@
           <t>3766212</t>
         </is>
       </c>
+      <c r="F500" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -10954,6 +12456,9 @@
           <t>3766212</t>
         </is>
       </c>
+      <c r="F501" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -10975,6 +12480,9 @@
           <t>3764178</t>
         </is>
       </c>
+      <c r="F502" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -10996,6 +12504,9 @@
           <t>3764182</t>
         </is>
       </c>
+      <c r="F503" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -11017,6 +12528,9 @@
           <t>3764182</t>
         </is>
       </c>
+      <c r="F504" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -11038,6 +12552,9 @@
           <t>3764183</t>
         </is>
       </c>
+      <c r="F505" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -11059,6 +12576,9 @@
           <t>3764574</t>
         </is>
       </c>
+      <c r="F506" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -11080,6 +12600,9 @@
           <t>3764574</t>
         </is>
       </c>
+      <c r="F507" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -11101,6 +12624,9 @@
           <t>3764569</t>
         </is>
       </c>
+      <c r="F508" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -11122,6 +12648,9 @@
           <t>3755553</t>
         </is>
       </c>
+      <c r="F509" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -11143,6 +12672,9 @@
           <t>3755553</t>
         </is>
       </c>
+      <c r="F510" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -11164,6 +12696,9 @@
           <t>3755553</t>
         </is>
       </c>
+      <c r="F511" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -11185,6 +12720,9 @@
           <t>3766121</t>
         </is>
       </c>
+      <c r="F512" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -11206,6 +12744,9 @@
           <t>3766121</t>
         </is>
       </c>
+      <c r="F513" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -11227,6 +12768,9 @@
           <t>3766121</t>
         </is>
       </c>
+      <c r="F514" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -11248,6 +12792,9 @@
           <t>3766182</t>
         </is>
       </c>
+      <c r="F515" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -11269,6 +12816,9 @@
           <t>3766136</t>
         </is>
       </c>
+      <c r="F516" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -11290,6 +12840,9 @@
           <t>3766136</t>
         </is>
       </c>
+      <c r="F517" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -11311,6 +12864,9 @@
           <t>3766136</t>
         </is>
       </c>
+      <c r="F518" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -11332,6 +12888,9 @@
           <t>3766087</t>
         </is>
       </c>
+      <c r="F519" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -11353,6 +12912,9 @@
           <t>3766084</t>
         </is>
       </c>
+      <c r="F520" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -11374,6 +12936,9 @@
           <t>3766084</t>
         </is>
       </c>
+      <c r="F521" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -11395,6 +12960,9 @@
           <t>3766084</t>
         </is>
       </c>
+      <c r="F522" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -11416,6 +12984,9 @@
           <t>3766080</t>
         </is>
       </c>
+      <c r="F523" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -11437,6 +13008,9 @@
           <t>3766097</t>
         </is>
       </c>
+      <c r="F524" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -11458,6 +13032,9 @@
           <t>3766097</t>
         </is>
       </c>
+      <c r="F525" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -11479,6 +13056,9 @@
           <t>3766097</t>
         </is>
       </c>
+      <c r="F526" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -11500,6 +13080,9 @@
           <t>3766097</t>
         </is>
       </c>
+      <c r="F527" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -11521,6 +13104,9 @@
           <t>3766104</t>
         </is>
       </c>
+      <c r="F528" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -11542,6 +13128,9 @@
           <t>3766104</t>
         </is>
       </c>
+      <c r="F529" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -11563,6 +13152,9 @@
           <t>3766207</t>
         </is>
       </c>
+      <c r="F530" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -11584,6 +13176,9 @@
           <t>3766207</t>
         </is>
       </c>
+      <c r="F531" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -11605,6 +13200,9 @@
           <t>3766159</t>
         </is>
       </c>
+      <c r="F532" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -11626,6 +13224,9 @@
           <t>3766159</t>
         </is>
       </c>
+      <c r="F533" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -11647,6 +13248,9 @@
           <t>3766402</t>
         </is>
       </c>
+      <c r="F534" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -11668,6 +13272,9 @@
           <t>3766402</t>
         </is>
       </c>
+      <c r="F535" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -11689,6 +13296,9 @@
           <t>3766167</t>
         </is>
       </c>
+      <c r="F536" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -11710,6 +13320,9 @@
           <t>3766193</t>
         </is>
       </c>
+      <c r="F537" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -11731,6 +13344,9 @@
           <t>3766180</t>
         </is>
       </c>
+      <c r="F538" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -11752,6 +13368,9 @@
           <t>3766180</t>
         </is>
       </c>
+      <c r="F539" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -11773,6 +13392,9 @@
           <t>3766399</t>
         </is>
       </c>
+      <c r="F540" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -11794,6 +13416,9 @@
           <t>3766407</t>
         </is>
       </c>
+      <c r="F541" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -11815,6 +13440,9 @@
           <t>3766397</t>
         </is>
       </c>
+      <c r="F542" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -11836,6 +13464,9 @@
           <t>3766397</t>
         </is>
       </c>
+      <c r="F543" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -11857,6 +13488,9 @@
           <t>3766250</t>
         </is>
       </c>
+      <c r="F544" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -11878,6 +13512,9 @@
           <t>3766405</t>
         </is>
       </c>
+      <c r="F545" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -11899,6 +13536,9 @@
           <t>3766405</t>
         </is>
       </c>
+      <c r="F546" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -11920,6 +13560,9 @@
           <t>3766297</t>
         </is>
       </c>
+      <c r="F547" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -11941,6 +13584,9 @@
           <t>3766297</t>
         </is>
       </c>
+      <c r="F548" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -11962,6 +13608,9 @@
           <t>3766297</t>
         </is>
       </c>
+      <c r="F549" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -11983,6 +13632,9 @@
           <t>3766396</t>
         </is>
       </c>
+      <c r="F550" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -12004,6 +13656,9 @@
           <t>3766396</t>
         </is>
       </c>
+      <c r="F551" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -12025,6 +13680,9 @@
           <t>3766396</t>
         </is>
       </c>
+      <c r="F552" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -12046,6 +13704,9 @@
           <t>3766396</t>
         </is>
       </c>
+      <c r="F553" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -12067,6 +13728,9 @@
           <t>3766373</t>
         </is>
       </c>
+      <c r="F554" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -12088,6 +13752,9 @@
           <t>3766394</t>
         </is>
       </c>
+      <c r="F555" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -12109,6 +13776,9 @@
           <t>3766394</t>
         </is>
       </c>
+      <c r="F556" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -12130,6 +13800,9 @@
           <t>3766394</t>
         </is>
       </c>
+      <c r="F557" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -12151,6 +13824,9 @@
           <t>3766389</t>
         </is>
       </c>
+      <c r="F558" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -12172,6 +13848,9 @@
           <t>3766387</t>
         </is>
       </c>
+      <c r="F559" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -12193,6 +13872,9 @@
           <t>3766387</t>
         </is>
       </c>
+      <c r="F560" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -12214,6 +13896,9 @@
           <t>3766387</t>
         </is>
       </c>
+      <c r="F561" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -12235,6 +13920,9 @@
           <t>3766380</t>
         </is>
       </c>
+      <c r="F562" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -12256,6 +13944,9 @@
           <t>3766380</t>
         </is>
       </c>
+      <c r="F563" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -12277,6 +13968,9 @@
           <t>3766380</t>
         </is>
       </c>
+      <c r="F564" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -12298,6 +13992,9 @@
           <t>3766381</t>
         </is>
       </c>
+      <c r="F565" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -12319,6 +14016,9 @@
           <t>3766350</t>
         </is>
       </c>
+      <c r="F566" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -12340,6 +14040,9 @@
           <t>3766350</t>
         </is>
       </c>
+      <c r="F567" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -12361,6 +14064,9 @@
           <t>3766350</t>
         </is>
       </c>
+      <c r="F568" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -12382,6 +14088,9 @@
           <t>3766350</t>
         </is>
       </c>
+      <c r="F569" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -12403,6 +14112,9 @@
           <t>3766350</t>
         </is>
       </c>
+      <c r="F570" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -12424,6 +14136,9 @@
           <t>3766331</t>
         </is>
       </c>
+      <c r="F571" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -12445,6 +14160,9 @@
           <t>3766331</t>
         </is>
       </c>
+      <c r="F572" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -12466,6 +14184,9 @@
           <t>3766331</t>
         </is>
       </c>
+      <c r="F573" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -12487,6 +14208,9 @@
           <t>3766339</t>
         </is>
       </c>
+      <c r="F574" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -12508,6 +14232,9 @@
           <t>3766339</t>
         </is>
       </c>
+      <c r="F575" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -12529,6 +14256,9 @@
           <t>3766339</t>
         </is>
       </c>
+      <c r="F576" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -12550,6 +14280,9 @@
           <t>3766349</t>
         </is>
       </c>
+      <c r="F577" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -12571,6 +14304,9 @@
           <t>3766349</t>
         </is>
       </c>
+      <c r="F578" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -12592,6 +14328,9 @@
           <t>3766390</t>
         </is>
       </c>
+      <c r="F579" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -12613,6 +14352,9 @@
           <t>3766390</t>
         </is>
       </c>
+      <c r="F580" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -12634,6 +14376,9 @@
           <t>3766390</t>
         </is>
       </c>
+      <c r="F581" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -12655,6 +14400,9 @@
           <t>3766375</t>
         </is>
       </c>
+      <c r="F582" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -12676,6 +14424,9 @@
           <t>3766346</t>
         </is>
       </c>
+      <c r="F583" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -12697,6 +14448,9 @@
           <t>3766346</t>
         </is>
       </c>
+      <c r="F584" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -12718,6 +14472,9 @@
           <t>3766346</t>
         </is>
       </c>
+      <c r="F585" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -12739,6 +14496,9 @@
           <t>3766370</t>
         </is>
       </c>
+      <c r="F586" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -12760,6 +14520,9 @@
           <t>3766367</t>
         </is>
       </c>
+      <c r="F587" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -12781,6 +14544,9 @@
           <t>3766367</t>
         </is>
       </c>
+      <c r="F588" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -12802,6 +14568,9 @@
           <t>3766378</t>
         </is>
       </c>
+      <c r="F589" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -12823,6 +14592,9 @@
           <t>3766356</t>
         </is>
       </c>
+      <c r="F590" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -12844,6 +14616,9 @@
           <t>3766106</t>
         </is>
       </c>
+      <c r="F591" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -12865,6 +14640,9 @@
           <t>3766106</t>
         </is>
       </c>
+      <c r="F592" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -12886,6 +14664,9 @@
           <t>3766103</t>
         </is>
       </c>
+      <c r="F593" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -12907,6 +14688,9 @@
           <t>3766103</t>
         </is>
       </c>
+      <c r="F594" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -12928,6 +14712,9 @@
           <t>3766103</t>
         </is>
       </c>
+      <c r="F595" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -12949,6 +14736,9 @@
           <t>3766109</t>
         </is>
       </c>
+      <c r="F596" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -12970,6 +14760,9 @@
           <t>3766109</t>
         </is>
       </c>
+      <c r="F597" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -12991,6 +14784,9 @@
           <t>3766148</t>
         </is>
       </c>
+      <c r="F598" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -13012,6 +14808,9 @@
           <t>3766148</t>
         </is>
       </c>
+      <c r="F599" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -13033,6 +14832,9 @@
           <t>3766148</t>
         </is>
       </c>
+      <c r="F600" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -13054,6 +14856,9 @@
           <t>3766148</t>
         </is>
       </c>
+      <c r="F601" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -13075,6 +14880,9 @@
           <t>3766141</t>
         </is>
       </c>
+      <c r="F602" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -13096,6 +14904,9 @@
           <t>3766141</t>
         </is>
       </c>
+      <c r="F603" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -13117,6 +14928,9 @@
           <t>3766141</t>
         </is>
       </c>
+      <c r="F604" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -13138,6 +14952,9 @@
           <t>3766174</t>
         </is>
       </c>
+      <c r="F605" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -13159,6 +14976,9 @@
           <t>3766174</t>
         </is>
       </c>
+      <c r="F606" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -13180,6 +15000,9 @@
           <t>3766174</t>
         </is>
       </c>
+      <c r="F607" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -13201,6 +15024,9 @@
           <t>3766162</t>
         </is>
       </c>
+      <c r="F608" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -13222,6 +15048,9 @@
           <t>3766162</t>
         </is>
       </c>
+      <c r="F609" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -13243,6 +15072,9 @@
           <t>3766131</t>
         </is>
       </c>
+      <c r="F610" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -13264,6 +15096,9 @@
           <t>3766131</t>
         </is>
       </c>
+      <c r="F611" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -13285,6 +15120,9 @@
           <t>3766131</t>
         </is>
       </c>
+      <c r="F612" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -13306,6 +15144,9 @@
           <t>3766131</t>
         </is>
       </c>
+      <c r="F613" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -13327,6 +15168,9 @@
           <t>3766139</t>
         </is>
       </c>
+      <c r="F614" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -13348,6 +15192,9 @@
           <t>3766139</t>
         </is>
       </c>
+      <c r="F615" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -13369,6 +15216,9 @@
           <t>3766169</t>
         </is>
       </c>
+      <c r="F616" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -13390,6 +15240,9 @@
           <t>3766169</t>
         </is>
       </c>
+      <c r="F617" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -13411,6 +15264,9 @@
           <t>3766124</t>
         </is>
       </c>
+      <c r="F618" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -13432,6 +15288,9 @@
           <t>3766124</t>
         </is>
       </c>
+      <c r="F619" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -13453,6 +15312,9 @@
           <t>3766124</t>
         </is>
       </c>
+      <c r="F620" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -13474,6 +15336,9 @@
           <t>3766124</t>
         </is>
       </c>
+      <c r="F621" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -13495,6 +15360,9 @@
           <t>3766198</t>
         </is>
       </c>
+      <c r="F622" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -13516,6 +15384,9 @@
           <t>3766198</t>
         </is>
       </c>
+      <c r="F623" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -13537,6 +15408,9 @@
           <t>3766197</t>
         </is>
       </c>
+      <c r="F624" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -13558,6 +15432,9 @@
           <t>3766197</t>
         </is>
       </c>
+      <c r="F625" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -13579,6 +15456,9 @@
           <t>3766197</t>
         </is>
       </c>
+      <c r="F626" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -13600,6 +15480,9 @@
           <t>3766241</t>
         </is>
       </c>
+      <c r="F627" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -13621,6 +15504,9 @@
           <t>3766241</t>
         </is>
       </c>
+      <c r="F628" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -13642,6 +15528,9 @@
           <t>3766233</t>
         </is>
       </c>
+      <c r="F629" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -13663,6 +15552,9 @@
           <t>3766221</t>
         </is>
       </c>
+      <c r="F630" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -13684,6 +15576,9 @@
           <t>3766221</t>
         </is>
       </c>
+      <c r="F631" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -13705,6 +15600,9 @@
           <t>3766235</t>
         </is>
       </c>
+      <c r="F632" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -13726,6 +15624,9 @@
           <t>3766235</t>
         </is>
       </c>
+      <c r="F633" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -13747,6 +15648,9 @@
           <t>3766235</t>
         </is>
       </c>
+      <c r="F634" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -13768,6 +15672,9 @@
           <t>3766235</t>
         </is>
       </c>
+      <c r="F635" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -13789,6 +15696,9 @@
           <t>3766225</t>
         </is>
       </c>
+      <c r="F636" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -13810,6 +15720,9 @@
           <t>3766225</t>
         </is>
       </c>
+      <c r="F637" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -13831,6 +15744,9 @@
           <t>3766204</t>
         </is>
       </c>
+      <c r="F638" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -13852,6 +15768,9 @@
           <t>3766204</t>
         </is>
       </c>
+      <c r="F639" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -13873,6 +15792,9 @@
           <t>3766226</t>
         </is>
       </c>
+      <c r="F640" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -13894,6 +15816,9 @@
           <t>3766255</t>
         </is>
       </c>
+      <c r="F641" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -13915,6 +15840,9 @@
           <t>3766274</t>
         </is>
       </c>
+      <c r="F642" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -13936,6 +15864,9 @@
           <t>3766274</t>
         </is>
       </c>
+      <c r="F643" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -13957,6 +15888,9 @@
           <t>3766285</t>
         </is>
       </c>
+      <c r="F644" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -13978,6 +15912,9 @@
           <t>3766285</t>
         </is>
       </c>
+      <c r="F645" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -13999,6 +15936,9 @@
           <t>3766285</t>
         </is>
       </c>
+      <c r="F646" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -14020,6 +15960,9 @@
           <t>3766285</t>
         </is>
       </c>
+      <c r="F647" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -14041,6 +15984,9 @@
           <t>3766298</t>
         </is>
       </c>
+      <c r="F648" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -14062,6 +16008,9 @@
           <t>3766290</t>
         </is>
       </c>
+      <c r="F649" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -14083,6 +16032,9 @@
           <t>3766290</t>
         </is>
       </c>
+      <c r="F650" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -14104,6 +16056,9 @@
           <t>3766291</t>
         </is>
       </c>
+      <c r="F651" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -14125,6 +16080,9 @@
           <t>3766291</t>
         </is>
       </c>
+      <c r="F652" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -14146,6 +16104,9 @@
           <t>3766300</t>
         </is>
       </c>
+      <c r="F653" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -14167,6 +16128,9 @@
           <t>3766300</t>
         </is>
       </c>
+      <c r="F654" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -14188,6 +16152,9 @@
           <t>3766300</t>
         </is>
       </c>
+      <c r="F655" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -14209,6 +16176,9 @@
           <t>3766300</t>
         </is>
       </c>
+      <c r="F656" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -14230,6 +16200,9 @@
           <t>3766292</t>
         </is>
       </c>
+      <c r="F657" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -14251,6 +16224,9 @@
           <t>3766292</t>
         </is>
       </c>
+      <c r="F658" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -14272,6 +16248,9 @@
           <t>3766316</t>
         </is>
       </c>
+      <c r="F659" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -14293,6 +16272,9 @@
           <t>3766316</t>
         </is>
       </c>
+      <c r="F660" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -14314,6 +16296,9 @@
           <t>3766319</t>
         </is>
       </c>
+      <c r="F661" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -14335,6 +16320,9 @@
           <t>3766319</t>
         </is>
       </c>
+      <c r="F662" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -14356,6 +16344,9 @@
           <t>3766319</t>
         </is>
       </c>
+      <c r="F663" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -14377,6 +16368,9 @@
           <t>3766319</t>
         </is>
       </c>
+      <c r="F664" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -14398,6 +16392,9 @@
           <t>3766319</t>
         </is>
       </c>
+      <c r="F665" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -14419,6 +16416,9 @@
           <t>3766311</t>
         </is>
       </c>
+      <c r="F666" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -14440,6 +16440,9 @@
           <t>3766311</t>
         </is>
       </c>
+      <c r="F667" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -14461,6 +16464,9 @@
           <t>3766311</t>
         </is>
       </c>
+      <c r="F668" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -14482,6 +16488,9 @@
           <t>3766314</t>
         </is>
       </c>
+      <c r="F669" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -14503,6 +16512,9 @@
           <t>3766314</t>
         </is>
       </c>
+      <c r="F670" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -14524,6 +16536,9 @@
           <t>3766360</t>
         </is>
       </c>
+      <c r="F671" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -14545,6 +16560,9 @@
           <t>3766332</t>
         </is>
       </c>
+      <c r="F672" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -14566,6 +16584,9 @@
           <t>3766338</t>
         </is>
       </c>
+      <c r="F673" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -14587,6 +16608,9 @@
           <t>3766338</t>
         </is>
       </c>
+      <c r="F674" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -14608,6 +16632,9 @@
           <t>3766340</t>
         </is>
       </c>
+      <c r="F675" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -14629,6 +16656,9 @@
           <t>3766340</t>
         </is>
       </c>
+      <c r="F676" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -14650,6 +16680,9 @@
           <t>3766340</t>
         </is>
       </c>
+      <c r="F677" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -14671,6 +16704,9 @@
           <t>3766340</t>
         </is>
       </c>
+      <c r="F678" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -14692,6 +16728,9 @@
           <t>3756286</t>
         </is>
       </c>
+      <c r="F679" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -14713,6 +16752,9 @@
           <t>3756286</t>
         </is>
       </c>
+      <c r="F680" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -14734,6 +16776,9 @@
           <t>3766391</t>
         </is>
       </c>
+      <c r="F681" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -14755,6 +16800,9 @@
           <t>3766388</t>
         </is>
       </c>
+      <c r="F682" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -14776,6 +16824,9 @@
           <t>3766385</t>
         </is>
       </c>
+      <c r="F683" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -14797,6 +16848,9 @@
           <t>3766385</t>
         </is>
       </c>
+      <c r="F684" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -14818,6 +16872,9 @@
           <t>3766385</t>
         </is>
       </c>
+      <c r="F685" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -14839,6 +16896,9 @@
           <t>3766382</t>
         </is>
       </c>
+      <c r="F686" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -14860,6 +16920,9 @@
           <t>3766382</t>
         </is>
       </c>
+      <c r="F687" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -14881,6 +16944,9 @@
           <t>3766382</t>
         </is>
       </c>
+      <c r="F688" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -14902,6 +16968,9 @@
           <t>3766403</t>
         </is>
       </c>
+      <c r="F689" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -14923,6 +16992,9 @@
           <t>3766404</t>
         </is>
       </c>
+      <c r="F690" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -14944,6 +17016,9 @@
           <t>3766195</t>
         </is>
       </c>
+      <c r="F691" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -14965,6 +17040,9 @@
           <t>3766195</t>
         </is>
       </c>
+      <c r="F692" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -14986,6 +17064,9 @@
           <t>3766195</t>
         </is>
       </c>
+      <c r="F693" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -15007,6 +17088,9 @@
           <t>3766223</t>
         </is>
       </c>
+      <c r="F694" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -15028,6 +17112,9 @@
           <t>3766138</t>
         </is>
       </c>
+      <c r="F695" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -15049,6 +17136,9 @@
           <t>3766138</t>
         </is>
       </c>
+      <c r="F696" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -15070,6 +17160,9 @@
           <t>3766138</t>
         </is>
       </c>
+      <c r="F697" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -15091,6 +17184,9 @@
           <t>3766138</t>
         </is>
       </c>
+      <c r="F698" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -15112,6 +17208,9 @@
           <t>3766138</t>
         </is>
       </c>
+      <c r="F699" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -15133,6 +17232,9 @@
           <t>3766138</t>
         </is>
       </c>
+      <c r="F700" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -15154,6 +17256,9 @@
           <t>3766330</t>
         </is>
       </c>
+      <c r="F701" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -15175,6 +17280,9 @@
           <t>3766330</t>
         </is>
       </c>
+      <c r="F702" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -15196,6 +17304,9 @@
           <t>3766330</t>
         </is>
       </c>
+      <c r="F703" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -15217,6 +17328,9 @@
           <t>3766362</t>
         </is>
       </c>
+      <c r="F704" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -15238,6 +17352,9 @@
           <t>3766362</t>
         </is>
       </c>
+      <c r="F705" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -15259,6 +17376,9 @@
           <t>3766185</t>
         </is>
       </c>
+      <c r="F706" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -15280,6 +17400,9 @@
           <t>3766271</t>
         </is>
       </c>
+      <c r="F707" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -15301,6 +17424,9 @@
           <t>3766271</t>
         </is>
       </c>
+      <c r="F708" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -15322,6 +17448,9 @@
           <t>3766271</t>
         </is>
       </c>
+      <c r="F709" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -15343,6 +17472,9 @@
           <t>3766271</t>
         </is>
       </c>
+      <c r="F710" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -15364,6 +17496,9 @@
           <t>3766281</t>
         </is>
       </c>
+      <c r="F711" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -15385,6 +17520,9 @@
           <t>3766281</t>
         </is>
       </c>
+      <c r="F712" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -15406,6 +17544,9 @@
           <t>3766099</t>
         </is>
       </c>
+      <c r="F713" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -15427,6 +17568,9 @@
           <t>3766289</t>
         </is>
       </c>
+      <c r="F714" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -15448,6 +17592,9 @@
           <t>3766289</t>
         </is>
       </c>
+      <c r="F715" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
@@ -15469,6 +17616,9 @@
           <t>3766254</t>
         </is>
       </c>
+      <c r="F716" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -15490,6 +17640,9 @@
           <t>3766254</t>
         </is>
       </c>
+      <c r="F717" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
@@ -15511,6 +17664,9 @@
           <t>3766254</t>
         </is>
       </c>
+      <c r="F718" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -15532,6 +17688,9 @@
           <t>3766254</t>
         </is>
       </c>
+      <c r="F719" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -15553,6 +17712,9 @@
           <t>3766248</t>
         </is>
       </c>
+      <c r="F720" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -15574,6 +17736,9 @@
           <t>3766270</t>
         </is>
       </c>
+      <c r="F721" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -15595,6 +17760,9 @@
           <t>3766270</t>
         </is>
       </c>
+      <c r="F722" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
@@ -15616,6 +17784,9 @@
           <t>3755555</t>
         </is>
       </c>
+      <c r="F723" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
@@ -15637,6 +17808,9 @@
           <t>3755555</t>
         </is>
       </c>
+      <c r="F724" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -15658,6 +17832,9 @@
           <t>3766336</t>
         </is>
       </c>
+      <c r="F725" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -15679,6 +17856,9 @@
           <t>3766189</t>
         </is>
       </c>
+      <c r="F726" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
@@ -15700,6 +17880,9 @@
           <t>3766189</t>
         </is>
       </c>
+      <c r="F727" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -15721,6 +17904,9 @@
           <t>3766189</t>
         </is>
       </c>
+      <c r="F728" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -15742,6 +17928,9 @@
           <t>3766189</t>
         </is>
       </c>
+      <c r="F729" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
@@ -15763,6 +17952,9 @@
           <t>3766232</t>
         </is>
       </c>
+      <c r="F730" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
@@ -15784,6 +17976,9 @@
           <t>3766232</t>
         </is>
       </c>
+      <c r="F731" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
@@ -15805,6 +18000,9 @@
           <t>3766232</t>
         </is>
       </c>
+      <c r="F732" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -15826,6 +18024,9 @@
           <t>3766200</t>
         </is>
       </c>
+      <c r="F733" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
@@ -15847,6 +18048,9 @@
           <t>3766112</t>
         </is>
       </c>
+      <c r="F734" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -15868,6 +18072,9 @@
           <t>3766112</t>
         </is>
       </c>
+      <c r="F735" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
@@ -15889,6 +18096,9 @@
           <t>3766112</t>
         </is>
       </c>
+      <c r="F736" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -15910,6 +18120,9 @@
           <t>3766231</t>
         </is>
       </c>
+      <c r="F737" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
@@ -15931,6 +18144,9 @@
           <t>3766231</t>
         </is>
       </c>
+      <c r="F738" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
@@ -15952,6 +18168,9 @@
           <t>3766231</t>
         </is>
       </c>
+      <c r="F739" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
@@ -15973,6 +18192,9 @@
           <t>3766231</t>
         </is>
       </c>
+      <c r="F740" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
@@ -15994,6 +18216,9 @@
           <t>3766231</t>
         </is>
       </c>
+      <c r="F741" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
@@ -16015,6 +18240,9 @@
           <t>3766359</t>
         </is>
       </c>
+      <c r="F742" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
@@ -16036,6 +18264,9 @@
           <t>3766359</t>
         </is>
       </c>
+      <c r="F743" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -16057,6 +18288,9 @@
           <t>3766345</t>
         </is>
       </c>
+      <c r="F744" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
@@ -16078,6 +18312,9 @@
           <t>3766075</t>
         </is>
       </c>
+      <c r="F745" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
@@ -16099,6 +18336,9 @@
           <t>3766245</t>
         </is>
       </c>
+      <c r="F746" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
@@ -16120,6 +18360,9 @@
           <t>3766245</t>
         </is>
       </c>
+      <c r="F747" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
@@ -16141,6 +18384,9 @@
           <t>3766245</t>
         </is>
       </c>
+      <c r="F748" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -16162,6 +18408,9 @@
           <t>3766194</t>
         </is>
       </c>
+      <c r="F749" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
@@ -16183,6 +18432,9 @@
           <t>3766194</t>
         </is>
       </c>
+      <c r="F750" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
@@ -16204,6 +18456,9 @@
           <t>3766194</t>
         </is>
       </c>
+      <c r="F751" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
@@ -16225,6 +18480,9 @@
           <t>3766194</t>
         </is>
       </c>
+      <c r="F752" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
@@ -16246,6 +18504,9 @@
           <t>3766209</t>
         </is>
       </c>
+      <c r="F753" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
@@ -16267,6 +18528,9 @@
           <t>3766213</t>
         </is>
       </c>
+      <c r="F754" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -16288,6 +18552,9 @@
           <t>3766213</t>
         </is>
       </c>
+      <c r="F755" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
@@ -16309,6 +18576,9 @@
           <t>3766145</t>
         </is>
       </c>
+      <c r="F756" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
@@ -16330,6 +18600,9 @@
           <t>3766145</t>
         </is>
       </c>
+      <c r="F757" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
@@ -16351,6 +18624,9 @@
           <t>3766145</t>
         </is>
       </c>
+      <c r="F758" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
@@ -16372,6 +18648,9 @@
           <t>3766284</t>
         </is>
       </c>
+      <c r="F759" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
@@ -16393,6 +18672,9 @@
           <t>3766127</t>
         </is>
       </c>
+      <c r="F760" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
@@ -16414,6 +18696,9 @@
           <t>3766127</t>
         </is>
       </c>
+      <c r="F761" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -16435,6 +18720,9 @@
           <t>3766127</t>
         </is>
       </c>
+      <c r="F762" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
@@ -16456,6 +18744,9 @@
           <t>3766127</t>
         </is>
       </c>
+      <c r="F763" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
@@ -16477,6 +18768,9 @@
           <t>3766208</t>
         </is>
       </c>
+      <c r="F764" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
@@ -16498,6 +18792,9 @@
           <t>3766183</t>
         </is>
       </c>
+      <c r="F765" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -16519,6 +18816,9 @@
           <t>3766183</t>
         </is>
       </c>
+      <c r="F766" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
@@ -16540,6 +18840,9 @@
           <t>3766183</t>
         </is>
       </c>
+      <c r="F767" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -16561,6 +18864,9 @@
           <t>3766183</t>
         </is>
       </c>
+      <c r="F768" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
@@ -16581,6 +18887,9 @@
         <is>
           <t>3766183</t>
         </is>
+      </c>
+      <c r="F769" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Heatmap SB/deb_action/Avant un but/Tableaux/2020_2021/loc_deb_action.xlsx
+++ b/Heatmap SB/deb_action/Avant un but/Tableaux/2020_2021/loc_deb_action.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.400000000000006</v>
+        <v>112.6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.799999999999997</v>
+        <v>74.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C3" t="n">
-        <v>71.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -513,10 +513,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74.7</v>
+        <v>45.3</v>
       </c>
       <c r="C4" t="n">
-        <v>74.90000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99.59999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="C5" t="n">
-        <v>57.9</v>
+        <v>22.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -561,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.5</v>
+        <v>80.5</v>
       </c>
       <c r="C6" t="n">
-        <v>54.6</v>
+        <v>25.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -585,10 +585,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>68.90000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -609,10 +609,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84.7</v>
+        <v>35.3</v>
       </c>
       <c r="C8" t="n">
-        <v>65.7</v>
+        <v>14.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.5</v>
+        <v>92.5</v>
       </c>
       <c r="C9" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -657,10 +657,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78.90000000000001</v>
+        <v>41.1</v>
       </c>
       <c r="C10" t="n">
-        <v>73.7</v>
+        <v>6.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,10 +681,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>63.7</v>
+        <v>56.3</v>
       </c>
       <c r="C11" t="n">
-        <v>41.2</v>
+        <v>38.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -729,10 +729,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -753,10 +753,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46.90000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>18.6</v>
+        <v>61.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -801,10 +801,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>49.90000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>75.8</v>
+        <v>4.2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>104.5</v>
+        <v>15.5</v>
       </c>
       <c r="C17" t="n">
-        <v>36.3</v>
+        <v>43.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.5</v>
+        <v>95.5</v>
       </c>
       <c r="C18" t="n">
-        <v>46.7</v>
+        <v>33.3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -873,10 +873,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>50.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>48.2</v>
+        <v>31.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -897,10 +897,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>51.5</v>
+        <v>68.5</v>
       </c>
       <c r="C20" t="n">
-        <v>17.8</v>
+        <v>62.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98.7</v>
+        <v>21.3</v>
       </c>
       <c r="C21" t="n">
-        <v>60.2</v>
+        <v>19.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -945,10 +945,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>64.40000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>107.5</v>
+        <v>12.5</v>
       </c>
       <c r="C23" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C24" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1017,10 +1017,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C25" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1041,10 +1041,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>61.1</v>
+        <v>58.9</v>
       </c>
       <c r="C26" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C27" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>113.2</v>
+        <v>6.8</v>
       </c>
       <c r="C28" t="n">
-        <v>68.3</v>
+        <v>11.7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1113,10 +1113,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>107.8</v>
+        <v>12.2</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1161,10 +1161,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>93.2</v>
+        <v>26.8</v>
       </c>
       <c r="C31" t="n">
-        <v>27.2</v>
+        <v>52.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1185,10 +1185,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>61.1</v>
+        <v>58.9</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1209,10 +1209,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>24.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1233,10 +1233,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C34" t="n">
-        <v>21.4</v>
+        <v>58.6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1257,10 +1257,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>38.2</v>
+        <v>81.8</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1281,10 +1281,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69.7</v>
+        <v>50.3</v>
       </c>
       <c r="C36" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1305,10 +1305,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>92.8</v>
+        <v>27.2</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1329,10 +1329,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>30.8</v>
+        <v>49.2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>110.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1377,10 +1377,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" t="n">
-        <v>26.3</v>
+        <v>53.7</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>105.5</v>
+        <v>14.5</v>
       </c>
       <c r="C41" t="n">
-        <v>63.1</v>
+        <v>16.9</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1425,10 +1425,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77.7</v>
+        <v>42.3</v>
       </c>
       <c r="C42" t="n">
-        <v>44.4</v>
+        <v>35.6</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1449,10 +1449,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>62.8</v>
+        <v>57.2</v>
       </c>
       <c r="C43" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.59999999999999</v>
+        <v>104.4</v>
       </c>
       <c r="C44" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1497,10 +1497,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>97.8</v>
+        <v>22.2</v>
       </c>
       <c r="C45" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1521,10 +1521,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1545,10 +1545,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97.5</v>
+        <v>22.5</v>
       </c>
       <c r="C47" t="n">
-        <v>24.3</v>
+        <v>55.7</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26.5</v>
+        <v>93.5</v>
       </c>
       <c r="C48" t="n">
-        <v>33.3</v>
+        <v>46.7</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>87.7</v>
+        <v>32.3</v>
       </c>
       <c r="C49" t="n">
-        <v>62.7</v>
+        <v>17.3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1617,10 +1617,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>49.09999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1641,10 +1641,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>52.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>45.4</v>
+        <v>34.6</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>61.3</v>
+        <v>58.7</v>
       </c>
       <c r="C52" t="n">
-        <v>38.5</v>
+        <v>41.5</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1689,10 +1689,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23.5</v>
+        <v>96.5</v>
       </c>
       <c r="C53" t="n">
-        <v>45.6</v>
+        <v>34.4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>61.9</v>
+        <v>58.1</v>
       </c>
       <c r="C54" t="n">
-        <v>69.09999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1737,10 +1737,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1761,10 +1761,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>105.6</v>
+        <v>14.4</v>
       </c>
       <c r="C56" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1785,10 +1785,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19.40000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1809,10 +1809,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>117.2</v>
+        <v>2.8</v>
       </c>
       <c r="C58" t="n">
-        <v>52.8</v>
+        <v>27.2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1833,10 +1833,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>91.3</v>
+        <v>28.7</v>
       </c>
       <c r="C59" t="n">
-        <v>24.7</v>
+        <v>55.3</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1857,10 +1857,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>110.1</v>
+        <v>9.9</v>
       </c>
       <c r="C60" t="n">
-        <v>25.1</v>
+        <v>54.9</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1881,10 +1881,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C61" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1905,10 +1905,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48.2</v>
+        <v>71.8</v>
       </c>
       <c r="C62" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23.8</v>
+        <v>96.2</v>
       </c>
       <c r="C63" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C64" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1977,10 +1977,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>84.09999999999999</v>
+        <v>35.9</v>
       </c>
       <c r="C65" t="n">
-        <v>58.8</v>
+        <v>21.2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2001,10 +2001,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>24.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>34.7</v>
+        <v>45.3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2025,10 +2025,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>52.8</v>
+        <v>67.2</v>
       </c>
       <c r="C67" t="n">
-        <v>23.8</v>
+        <v>56.2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2049,10 +2049,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2073,10 +2073,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C69" t="n">
-        <v>69.2</v>
+        <v>10.8</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2097,10 +2097,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C70" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2121,10 +2121,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C71" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2145,10 +2145,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>69.59999999999999</v>
+        <v>50.4</v>
       </c>
       <c r="C72" t="n">
-        <v>6.799999999999997</v>
+        <v>73.2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2169,10 +2169,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.8</v>
+        <v>109.2</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2193,10 +2193,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C74" t="n">
-        <v>14.7</v>
+        <v>65.3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2217,10 +2217,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>76.3</v>
+        <v>43.7</v>
       </c>
       <c r="C75" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2241,10 +2241,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2265,10 +2265,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2313,10 +2313,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>42.7</v>
+        <v>77.3</v>
       </c>
       <c r="C79" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2337,10 +2337,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41.8</v>
+        <v>78.2</v>
       </c>
       <c r="C80" t="n">
-        <v>75.09999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2361,10 +2361,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C81" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2385,10 +2385,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>87.8</v>
+        <v>32.2</v>
       </c>
       <c r="C82" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2409,10 +2409,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C83" t="n">
-        <v>54.9</v>
+        <v>25.1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>110.4</v>
+        <v>9.6</v>
       </c>
       <c r="C84" t="n">
-        <v>49.5</v>
+        <v>30.5</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2457,10 +2457,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>59.9</v>
+        <v>20.1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2481,10 +2481,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>82.5</v>
+        <v>37.5</v>
       </c>
       <c r="C86" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2505,10 +2505,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>106.2</v>
+        <v>13.8</v>
       </c>
       <c r="C87" t="n">
-        <v>46.3</v>
+        <v>33.7</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2529,10 +2529,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>52.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>46.1</v>
+        <v>33.9</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2553,10 +2553,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2577,10 +2577,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C90" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>45.8</v>
+        <v>74.2</v>
       </c>
       <c r="C91" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2625,10 +2625,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>42.7</v>
+        <v>77.3</v>
       </c>
       <c r="C92" t="n">
-        <v>53.2</v>
+        <v>26.8</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2649,10 +2649,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29.2</v>
+        <v>90.8</v>
       </c>
       <c r="C93" t="n">
-        <v>31.1</v>
+        <v>48.9</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2673,10 +2673,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>88.2</v>
+        <v>31.8</v>
       </c>
       <c r="C94" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2697,10 +2697,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C95" t="n">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9000000000000057</v>
+        <v>119.1</v>
       </c>
       <c r="C96" t="n">
-        <v>1.099999999999994</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2745,10 +2745,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39.7</v>
+        <v>80.3</v>
       </c>
       <c r="C97" t="n">
-        <v>23.3</v>
+        <v>56.7</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2769,10 +2769,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>88.5</v>
+        <v>31.5</v>
       </c>
       <c r="C98" t="n">
-        <v>21.3</v>
+        <v>58.7</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C99" t="n">
-        <v>15.90000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2817,10 +2817,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2841,10 +2841,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>65.3</v>
+        <v>54.7</v>
       </c>
       <c r="C101" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2865,10 +2865,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>70.90000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="C102" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2889,10 +2889,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>87.09999999999999</v>
+        <v>32.9</v>
       </c>
       <c r="C103" t="n">
-        <v>24.3</v>
+        <v>55.7</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2913,10 +2913,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>87.5</v>
+        <v>32.5</v>
       </c>
       <c r="C104" t="n">
-        <v>76.90000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2937,10 +2937,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>26.9</v>
+        <v>53.1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2961,10 +2961,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>28.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>51.5</v>
+        <v>28.5</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>96.40000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="C107" t="n">
-        <v>52.6</v>
+        <v>27.4</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3009,10 +3009,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C108" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3033,10 +3033,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>100.9</v>
+        <v>19.1</v>
       </c>
       <c r="C109" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3057,10 +3057,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C110" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3081,10 +3081,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>95.90000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="C111" t="n">
-        <v>17.9</v>
+        <v>62.1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3105,10 +3105,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3129,10 +3129,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C113" t="n">
-        <v>25.6</v>
+        <v>54.4</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3153,10 +3153,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>76.5</v>
+        <v>43.5</v>
       </c>
       <c r="C114" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3177,10 +3177,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>36.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>21.9</v>
+        <v>58.1</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3201,10 +3201,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>40.9</v>
+        <v>39.1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3225,10 +3225,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>117.5</v>
+        <v>2.5</v>
       </c>
       <c r="C117" t="n">
-        <v>22.1</v>
+        <v>57.9</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3249,10 +3249,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3273,10 +3273,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>56.1</v>
+        <v>63.9</v>
       </c>
       <c r="C119" t="n">
-        <v>7.400000000000006</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3297,10 +3297,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C120" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3321,10 +3321,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>89.2</v>
+        <v>30.8</v>
       </c>
       <c r="C121" t="n">
-        <v>11.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3345,10 +3345,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>70.2</v>
+        <v>49.8</v>
       </c>
       <c r="C122" t="n">
-        <v>16.7</v>
+        <v>63.3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3369,10 +3369,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>71.2</v>
+        <v>48.8</v>
       </c>
       <c r="C123" t="n">
-        <v>20.8</v>
+        <v>59.2</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3393,10 +3393,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>70.59999999999999</v>
+        <v>49.4</v>
       </c>
       <c r="C124" t="n">
-        <v>67.5</v>
+        <v>12.5</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3417,10 +3417,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>76.3</v>
+        <v>43.7</v>
       </c>
       <c r="C125" t="n">
-        <v>63.8</v>
+        <v>16.2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3441,10 +3441,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>61.9</v>
+        <v>58.1</v>
       </c>
       <c r="C126" t="n">
-        <v>35.4</v>
+        <v>44.6</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3465,10 +3465,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>63.5</v>
+        <v>56.5</v>
       </c>
       <c r="C127" t="n">
-        <v>31.5</v>
+        <v>48.5</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3489,10 +3489,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>22.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3513,10 +3513,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>34.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>57.4</v>
+        <v>22.6</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3537,10 +3537,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>104.5</v>
+        <v>15.5</v>
       </c>
       <c r="C130" t="n">
-        <v>74.8</v>
+        <v>5.2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3561,10 +3561,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>42.5</v>
+        <v>77.5</v>
       </c>
       <c r="C131" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3585,10 +3585,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>104.3</v>
+        <v>15.7</v>
       </c>
       <c r="C132" t="n">
-        <v>28.6</v>
+        <v>51.4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3609,10 +3609,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>101.3</v>
+        <v>18.7</v>
       </c>
       <c r="C133" t="n">
-        <v>11.3</v>
+        <v>68.7</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3633,10 +3633,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3657,10 +3657,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>62.8</v>
+        <v>57.2</v>
       </c>
       <c r="C135" t="n">
-        <v>51.4</v>
+        <v>28.6</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3681,10 +3681,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>96.8</v>
+        <v>23.2</v>
       </c>
       <c r="C136" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3705,10 +3705,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>85.7</v>
+        <v>34.3</v>
       </c>
       <c r="C137" t="n">
-        <v>58.7</v>
+        <v>21.3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C138" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3753,10 +3753,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>105.5</v>
+        <v>14.5</v>
       </c>
       <c r="C139" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3777,10 +3777,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>81.40000000000001</v>
+        <v>38.6</v>
       </c>
       <c r="C140" t="n">
-        <v>59.2</v>
+        <v>20.8</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3801,10 +3801,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>92.2</v>
+        <v>27.8</v>
       </c>
       <c r="C141" t="n">
-        <v>38.4</v>
+        <v>41.6</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3825,10 +3825,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C142" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3849,10 +3849,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C143" t="n">
-        <v>60.7</v>
+        <v>19.3</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3873,10 +3873,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3897,10 +3897,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>73.2</v>
+        <v>46.8</v>
       </c>
       <c r="C145" t="n">
-        <v>38.1</v>
+        <v>41.9</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3921,10 +3921,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>93.40000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="C146" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3945,10 +3945,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>93.40000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="C147" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3969,10 +3969,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C148" t="n">
-        <v>42.1</v>
+        <v>37.9</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3993,10 +3993,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>54.8</v>
+        <v>65.2</v>
       </c>
       <c r="C149" t="n">
-        <v>49.6</v>
+        <v>30.4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4017,10 +4017,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>33.8</v>
+        <v>86.2</v>
       </c>
       <c r="C150" t="n">
-        <v>7.900000000000006</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4041,10 +4041,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C151" t="n">
-        <v>47.5</v>
+        <v>32.5</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4065,10 +4065,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.09999999999999</v>
+        <v>104.9</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4089,10 +4089,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C153" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4113,10 +4113,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>88.90000000000001</v>
+        <v>31.1</v>
       </c>
       <c r="C154" t="n">
-        <v>64.7</v>
+        <v>15.3</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4137,10 +4137,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C155" t="n">
-        <v>35.9</v>
+        <v>44.1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4161,10 +4161,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>25.2</v>
+        <v>94.8</v>
       </c>
       <c r="C156" t="n">
-        <v>13.7</v>
+        <v>66.3</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4185,10 +4185,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>66.90000000000001</v>
+        <v>53.1</v>
       </c>
       <c r="C157" t="n">
-        <v>71.40000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4209,10 +4209,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4233,10 +4233,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>89.5</v>
+        <v>30.5</v>
       </c>
       <c r="C159" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4257,10 +4257,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C160" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4281,10 +4281,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>55.5</v>
+        <v>64.5</v>
       </c>
       <c r="C161" t="n">
-        <v>35.6</v>
+        <v>44.4</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4305,10 +4305,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>40.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C163" t="n">
-        <v>5.200000000000003</v>
+        <v>74.8</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4353,10 +4353,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C164" t="n">
-        <v>28.8</v>
+        <v>51.2</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4377,10 +4377,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>71.2</v>
+        <v>48.8</v>
       </c>
       <c r="C165" t="n">
-        <v>24.7</v>
+        <v>55.3</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4401,10 +4401,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>60.8</v>
+        <v>59.2</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4425,10 +4425,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.599999999999994</v>
+        <v>115.4</v>
       </c>
       <c r="C167" t="n">
-        <v>45.6</v>
+        <v>34.4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4449,10 +4449,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>104.5</v>
+        <v>15.5</v>
       </c>
       <c r="C168" t="n">
-        <v>34.3</v>
+        <v>45.7</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4473,10 +4473,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.700000000000003</v>
+        <v>116.3</v>
       </c>
       <c r="C169" t="n">
-        <v>64.90000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4497,10 +4497,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>75.40000000000001</v>
+        <v>44.6</v>
       </c>
       <c r="C170" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4521,10 +4521,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8.599999999999994</v>
+        <v>111.4</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4545,10 +4545,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>56.3</v>
+        <v>63.7</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4569,10 +4569,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>58.3</v>
+        <v>61.7</v>
       </c>
       <c r="C173" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4593,10 +4593,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>104.9</v>
+        <v>15.1</v>
       </c>
       <c r="C174" t="n">
-        <v>36.2</v>
+        <v>43.8</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4617,10 +4617,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>22.7</v>
+        <v>97.3</v>
       </c>
       <c r="C175" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4641,10 +4641,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>28.8</v>
+        <v>91.2</v>
       </c>
       <c r="C176" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4665,10 +4665,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>14.59999999999999</v>
+        <v>105.4</v>
       </c>
       <c r="C177" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4689,10 +4689,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>28.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C178" t="n">
-        <v>55.9</v>
+        <v>24.1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4713,10 +4713,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>27.7</v>
+        <v>92.3</v>
       </c>
       <c r="C179" t="n">
-        <v>18.3</v>
+        <v>61.7</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4737,10 +4737,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>87.3</v>
+        <v>32.7</v>
       </c>
       <c r="C180" t="n">
-        <v>52.1</v>
+        <v>27.9</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4761,10 +4761,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>31.2</v>
+        <v>88.8</v>
       </c>
       <c r="C181" t="n">
-        <v>53.9</v>
+        <v>26.1</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4785,10 +4785,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C182" t="n">
-        <v>18.2</v>
+        <v>61.8</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4809,10 +4809,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4833,10 +4833,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4857,10 +4857,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>102.4</v>
+        <v>17.6</v>
       </c>
       <c r="C185" t="n">
-        <v>43.1</v>
+        <v>36.9</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4881,10 +4881,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C186" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4905,10 +4905,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>117.6</v>
+        <v>2.4</v>
       </c>
       <c r="C187" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4929,10 +4929,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>72.90000000000001</v>
+        <v>47.1</v>
       </c>
       <c r="C188" t="n">
-        <v>55.3</v>
+        <v>24.7</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4953,10 +4953,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>12.8</v>
+        <v>107.2</v>
       </c>
       <c r="C189" t="n">
-        <v>43.8</v>
+        <v>36.2</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4977,10 +4977,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C190" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5001,10 +5001,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>16.2</v>
+        <v>103.8</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5025,10 +5025,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C192" t="n">
-        <v>74.5</v>
+        <v>5.5</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5049,10 +5049,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5073,10 +5073,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5097,10 +5097,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>95.7</v>
+        <v>24.3</v>
       </c>
       <c r="C195" t="n">
-        <v>60.8</v>
+        <v>19.2</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5121,10 +5121,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>65.8</v>
+        <v>54.2</v>
       </c>
       <c r="C196" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5145,10 +5145,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>55.90000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5169,10 +5169,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C198" t="n">
-        <v>25.9</v>
+        <v>54.1</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5193,10 +5193,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5217,10 +5217,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C200" t="n">
-        <v>61.3</v>
+        <v>18.7</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5241,10 +5241,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C201" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5265,10 +5265,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>13.40000000000001</v>
+        <v>106.6</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5289,10 +5289,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>61.1</v>
+        <v>58.9</v>
       </c>
       <c r="C203" t="n">
-        <v>17.8</v>
+        <v>62.2</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5313,10 +5313,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C204" t="n">
-        <v>53.9</v>
+        <v>26.1</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5337,10 +5337,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="C205" t="n">
-        <v>6.900000000000006</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5361,10 +5361,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>44.2</v>
+        <v>75.8</v>
       </c>
       <c r="C206" t="n">
-        <v>47.1</v>
+        <v>32.9</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5385,10 +5385,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5409,10 +5409,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>107.6</v>
+        <v>12.4</v>
       </c>
       <c r="C208" t="n">
-        <v>54.2</v>
+        <v>25.8</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5433,10 +5433,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>65.09999999999999</v>
+        <v>54.9</v>
       </c>
       <c r="C209" t="n">
-        <v>36.8</v>
+        <v>43.2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5457,10 +5457,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>29.7</v>
+        <v>90.3</v>
       </c>
       <c r="C210" t="n">
-        <v>67.8</v>
+        <v>12.2</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5481,10 +5481,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>85.3</v>
+        <v>34.7</v>
       </c>
       <c r="C211" t="n">
-        <v>65.7</v>
+        <v>14.3</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5505,10 +5505,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>94.7</v>
+        <v>25.3</v>
       </c>
       <c r="C212" t="n">
-        <v>61.4</v>
+        <v>18.6</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5529,10 +5529,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>34.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C213" t="n">
-        <v>55.3</v>
+        <v>24.7</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5553,10 +5553,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>87.2</v>
+        <v>32.8</v>
       </c>
       <c r="C214" t="n">
-        <v>42.1</v>
+        <v>37.9</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5577,10 +5577,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C215" t="n">
-        <v>68.3</v>
+        <v>11.7</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5601,10 +5601,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>29.7</v>
+        <v>90.3</v>
       </c>
       <c r="C216" t="n">
-        <v>25.2</v>
+        <v>54.8</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5625,10 +5625,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5649,10 +5649,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>87.09999999999999</v>
+        <v>32.9</v>
       </c>
       <c r="C218" t="n">
-        <v>67.09999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5673,10 +5673,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.200000000000003</v>
+        <v>118.8</v>
       </c>
       <c r="C219" t="n">
-        <v>61.9</v>
+        <v>18.1</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5697,10 +5697,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>30.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C220" t="n">
-        <v>22.8</v>
+        <v>57.2</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5721,10 +5721,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>61.4</v>
+        <v>58.6</v>
       </c>
       <c r="C221" t="n">
-        <v>71.40000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5745,10 +5745,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>41.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C222" t="n">
-        <v>47.7</v>
+        <v>32.3</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5769,10 +5769,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>83.90000000000001</v>
+        <v>36.1</v>
       </c>
       <c r="C223" t="n">
-        <v>31.3</v>
+        <v>48.7</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5793,10 +5793,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C224" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5817,10 +5817,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>22.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5841,10 +5841,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>19.40000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="C226" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5865,10 +5865,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>108.8</v>
+        <v>11.2</v>
       </c>
       <c r="C227" t="n">
-        <v>2.099999999999994</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5889,10 +5889,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>54.59999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C228" t="n">
-        <v>29.5</v>
+        <v>50.5</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5913,10 +5913,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>57.5</v>
+        <v>62.5</v>
       </c>
       <c r="C229" t="n">
-        <v>21.5</v>
+        <v>58.5</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5937,10 +5937,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>60.2</v>
+        <v>59.8</v>
       </c>
       <c r="C230" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5961,10 +5961,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C231" t="n">
-        <v>35.9</v>
+        <v>44.1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6009,10 +6009,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C233" t="n">
-        <v>13.5</v>
+        <v>66.5</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6033,10 +6033,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C234" t="n">
-        <v>18.3</v>
+        <v>61.7</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6057,10 +6057,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>76.7</v>
+        <v>43.3</v>
       </c>
       <c r="C235" t="n">
-        <v>76.7</v>
+        <v>3.3</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6081,10 +6081,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>52.5</v>
+        <v>67.5</v>
       </c>
       <c r="C236" t="n">
-        <v>12.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6105,10 +6105,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>56.4</v>
+        <v>63.6</v>
       </c>
       <c r="C237" t="n">
-        <v>3.400000000000006</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6129,10 +6129,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>103.4</v>
+        <v>16.6</v>
       </c>
       <c r="C238" t="n">
-        <v>47.8</v>
+        <v>32.2</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6153,10 +6153,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>93.40000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="C239" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6177,10 +6177,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>111.4</v>
+        <v>8.6</v>
       </c>
       <c r="C240" t="n">
-        <v>36.4</v>
+        <v>43.6</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6201,10 +6201,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>76.3</v>
+        <v>43.7</v>
       </c>
       <c r="C241" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6225,10 +6225,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6249,10 +6249,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>106.1</v>
+        <v>13.9</v>
       </c>
       <c r="C243" t="n">
-        <v>22.5</v>
+        <v>57.5</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6273,10 +6273,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>56.9</v>
+        <v>63.1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6297,10 +6297,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>50.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C245" t="n">
-        <v>70.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6321,10 +6321,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>67.40000000000001</v>
+        <v>52.6</v>
       </c>
       <c r="C246" t="n">
-        <v>8.099999999999994</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6345,10 +6345,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>63.5</v>
+        <v>56.5</v>
       </c>
       <c r="C247" t="n">
-        <v>34.4</v>
+        <v>45.6</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6369,10 +6369,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>34.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C248" t="n">
-        <v>46.7</v>
+        <v>33.3</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6393,10 +6393,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>59.8</v>
+        <v>60.2</v>
       </c>
       <c r="C249" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6417,10 +6417,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>49.90000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C250" t="n">
-        <v>51.8</v>
+        <v>28.2</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6441,10 +6441,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>57.9</v>
+        <v>62.1</v>
       </c>
       <c r="C251" t="n">
-        <v>44.3</v>
+        <v>35.7</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6465,10 +6465,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>89.2</v>
+        <v>30.8</v>
       </c>
       <c r="C252" t="n">
-        <v>8.400000000000006</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6489,10 +6489,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>57.3</v>
+        <v>62.7</v>
       </c>
       <c r="C253" t="n">
-        <v>22.1</v>
+        <v>57.9</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6513,10 +6513,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>95.40000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="C254" t="n">
-        <v>26.4</v>
+        <v>53.6</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6537,10 +6537,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C255" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6561,10 +6561,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>21.8</v>
+        <v>98.2</v>
       </c>
       <c r="C256" t="n">
-        <v>28.8</v>
+        <v>51.2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6585,10 +6585,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>7.5</v>
+        <v>112.5</v>
       </c>
       <c r="C257" t="n">
-        <v>22.4</v>
+        <v>57.6</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6609,10 +6609,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C258" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6633,10 +6633,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6657,10 +6657,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>55.09999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C260" t="n">
-        <v>41.7</v>
+        <v>38.3</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6681,10 +6681,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C261" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6705,10 +6705,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>89.90000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="C262" t="n">
-        <v>64.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6729,10 +6729,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>51.3</v>
+        <v>68.7</v>
       </c>
       <c r="C263" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -6753,10 +6753,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -6777,10 +6777,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>109.2</v>
+        <v>10.8</v>
       </c>
       <c r="C265" t="n">
-        <v>31.4</v>
+        <v>48.6</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -6801,10 +6801,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>54.2</v>
+        <v>65.8</v>
       </c>
       <c r="C266" t="n">
-        <v>27.2</v>
+        <v>52.8</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -6825,10 +6825,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>41.2</v>
+        <v>78.8</v>
       </c>
       <c r="C267" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -6849,10 +6849,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C268" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -6873,10 +6873,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>51.5</v>
+        <v>68.5</v>
       </c>
       <c r="C269" t="n">
-        <v>14.7</v>
+        <v>65.3</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -6897,10 +6897,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>9.099999999999994</v>
+        <v>110.9</v>
       </c>
       <c r="C270" t="n">
-        <v>65.2</v>
+        <v>14.8</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -6921,10 +6921,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>94.09999999999999</v>
+        <v>25.9</v>
       </c>
       <c r="C271" t="n">
-        <v>47.5</v>
+        <v>32.5</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -6945,10 +6945,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C272" t="n">
-        <v>38.5</v>
+        <v>41.5</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -6969,10 +6969,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>44.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C273" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -6993,10 +6993,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>90.09999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="C274" t="n">
-        <v>66.3</v>
+        <v>13.7</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7017,10 +7017,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>9.400000000000006</v>
+        <v>110.6</v>
       </c>
       <c r="C275" t="n">
-        <v>47.3</v>
+        <v>32.7</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7041,10 +7041,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7065,10 +7065,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>116.7</v>
+        <v>3.3</v>
       </c>
       <c r="C277" t="n">
-        <v>64.8</v>
+        <v>15.2</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7089,10 +7089,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C278" t="n">
-        <v>60.2</v>
+        <v>19.8</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7113,10 +7113,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>99.40000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="C279" t="n">
-        <v>49.9</v>
+        <v>30.1</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7137,10 +7137,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>48.3</v>
+        <v>71.7</v>
       </c>
       <c r="C280" t="n">
-        <v>4.900000000000006</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7161,10 +7161,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C281" t="n">
-        <v>72.3</v>
+        <v>7.7</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7185,10 +7185,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>9.400000000000006</v>
+        <v>110.6</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7209,10 +7209,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>99.2</v>
+        <v>20.8</v>
       </c>
       <c r="C283" t="n">
-        <v>74.90000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7233,10 +7233,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>15.8</v>
+        <v>104.2</v>
       </c>
       <c r="C284" t="n">
-        <v>68.7</v>
+        <v>11.3</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7257,10 +7257,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>15.09999999999999</v>
+        <v>104.9</v>
       </c>
       <c r="C285" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7281,10 +7281,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C286" t="n">
-        <v>9.099999999999994</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7305,10 +7305,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>30.5</v>
+        <v>89.5</v>
       </c>
       <c r="C287" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7329,10 +7329,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>85.40000000000001</v>
+        <v>34.6</v>
       </c>
       <c r="C288" t="n">
-        <v>13.2</v>
+        <v>66.8</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7353,10 +7353,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7377,10 +7377,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7401,10 +7401,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>9.799999999999997</v>
+        <v>110.2</v>
       </c>
       <c r="C291" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7425,10 +7425,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>23.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C292" t="n">
-        <v>43.8</v>
+        <v>36.2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -7449,10 +7449,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>21.3</v>
+        <v>98.7</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7473,10 +7473,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C294" t="n">
-        <v>5.700000000000003</v>
+        <v>74.3</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7497,10 +7497,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>86.3</v>
+        <v>33.7</v>
       </c>
       <c r="C295" t="n">
-        <v>17.6</v>
+        <v>62.4</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7521,10 +7521,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>56.2</v>
+        <v>63.8</v>
       </c>
       <c r="C296" t="n">
-        <v>38.6</v>
+        <v>41.4</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7545,10 +7545,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C297" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7569,10 +7569,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C298" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7593,10 +7593,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7617,10 +7617,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>74.90000000000001</v>
+        <v>45.1</v>
       </c>
       <c r="C300" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7641,10 +7641,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>37.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C301" t="n">
-        <v>18.2</v>
+        <v>61.8</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7665,10 +7665,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>80.8</v>
+        <v>39.2</v>
       </c>
       <c r="C302" t="n">
-        <v>57.5</v>
+        <v>22.5</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7689,10 +7689,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>57.6</v>
+        <v>62.4</v>
       </c>
       <c r="C303" t="n">
-        <v>54.9</v>
+        <v>25.1</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -7713,10 +7713,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>74.3</v>
+        <v>45.7</v>
       </c>
       <c r="C304" t="n">
-        <v>63.5</v>
+        <v>16.5</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -7737,10 +7737,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C305" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -7761,10 +7761,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -7785,10 +7785,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C307" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -7809,10 +7809,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>42.7</v>
+        <v>77.3</v>
       </c>
       <c r="C308" t="n">
-        <v>62.4</v>
+        <v>17.6</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -7833,10 +7833,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>83.8</v>
+        <v>36.2</v>
       </c>
       <c r="C309" t="n">
-        <v>62.3</v>
+        <v>17.7</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -7857,10 +7857,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>19.40000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="C310" t="n">
-        <v>30.9</v>
+        <v>49.1</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -7881,10 +7881,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C311" t="n">
-        <v>23.3</v>
+        <v>56.7</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -7905,10 +7905,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>52.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C312" t="n">
-        <v>7.400000000000006</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -7929,10 +7929,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C313" t="n">
-        <v>67.90000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -7953,10 +7953,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>64.40000000000001</v>
+        <v>55.6</v>
       </c>
       <c r="C314" t="n">
-        <v>16.7</v>
+        <v>63.3</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -7977,10 +7977,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C315" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -8001,10 +8001,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>36.5</v>
+        <v>83.5</v>
       </c>
       <c r="C316" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -8025,10 +8025,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>66.59999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="C317" t="n">
-        <v>37.4</v>
+        <v>42.6</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -8049,10 +8049,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>75.3</v>
+        <v>44.7</v>
       </c>
       <c r="C318" t="n">
-        <v>61.6</v>
+        <v>18.4</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -8073,10 +8073,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>34.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C319" t="n">
-        <v>18.7</v>
+        <v>61.3</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -8097,10 +8097,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>94.40000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="C320" t="n">
-        <v>33.9</v>
+        <v>46.1</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -8121,10 +8121,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C321" t="n">
-        <v>4.299999999999997</v>
+        <v>75.7</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -8145,10 +8145,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>76.3</v>
+        <v>43.7</v>
       </c>
       <c r="C322" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -8169,10 +8169,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>20.7</v>
+        <v>99.3</v>
       </c>
       <c r="C323" t="n">
-        <v>47.2</v>
+        <v>32.8</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -8193,10 +8193,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>75.09999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="C324" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -8217,10 +8217,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>92.40000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="C325" t="n">
-        <v>68.90000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -8241,10 +8241,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>42.3</v>
+        <v>77.7</v>
       </c>
       <c r="C326" t="n">
-        <v>20.7</v>
+        <v>59.3</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -8265,10 +8265,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -8289,10 +8289,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>83.09999999999999</v>
+        <v>36.9</v>
       </c>
       <c r="C328" t="n">
-        <v>68.2</v>
+        <v>11.8</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -8313,10 +8313,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>39.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C329" t="n">
-        <v>29.9</v>
+        <v>50.1</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -8337,10 +8337,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>38.2</v>
+        <v>81.8</v>
       </c>
       <c r="C330" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -8361,10 +8361,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -8385,10 +8385,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>24.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C332" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -8409,10 +8409,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>37.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C333" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -8433,10 +8433,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>27.2</v>
+        <v>92.8</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -8457,10 +8457,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>48.2</v>
+        <v>71.8</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -8481,10 +8481,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>106.9</v>
+        <v>13.1</v>
       </c>
       <c r="C336" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -8505,10 +8505,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>87.90000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="C337" t="n">
-        <v>65.5</v>
+        <v>14.5</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -8529,10 +8529,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>65.2</v>
+        <v>54.8</v>
       </c>
       <c r="C338" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -8553,10 +8553,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>36.5</v>
+        <v>83.5</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -8577,10 +8577,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>42.2</v>
+        <v>77.8</v>
       </c>
       <c r="C340" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -8601,10 +8601,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>54.2</v>
+        <v>65.8</v>
       </c>
       <c r="C341" t="n">
-        <v>36.7</v>
+        <v>43.3</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -8625,10 +8625,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>64.59999999999999</v>
+        <v>55.4</v>
       </c>
       <c r="C342" t="n">
-        <v>17.5</v>
+        <v>62.5</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -8649,10 +8649,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>112.6</v>
+        <v>7.4</v>
       </c>
       <c r="C343" t="n">
-        <v>5.5</v>
+        <v>74.5</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -8673,10 +8673,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C344" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -8697,10 +8697,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>89.40000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="C345" t="n">
-        <v>17.1</v>
+        <v>62.9</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -8721,10 +8721,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>104.3</v>
+        <v>15.7</v>
       </c>
       <c r="C346" t="n">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -8745,10 +8745,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C347" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -8769,10 +8769,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>64.2</v>
+        <v>55.8</v>
       </c>
       <c r="C348" t="n">
-        <v>77.59999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -8793,10 +8793,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>27.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -8817,10 +8817,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>22.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C350" t="n">
-        <v>20.3</v>
+        <v>59.7</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -8841,10 +8841,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>81.7</v>
+        <v>38.3</v>
       </c>
       <c r="C351" t="n">
-        <v>22.6</v>
+        <v>57.4</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -8865,10 +8865,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C352" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -8889,10 +8889,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>32.7</v>
+        <v>87.3</v>
       </c>
       <c r="C353" t="n">
-        <v>27.9</v>
+        <v>52.1</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -8913,10 +8913,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>87.40000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -8937,10 +8937,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>29.59999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C355" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -8961,10 +8961,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -8985,10 +8985,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>69.7</v>
+        <v>50.3</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -9009,10 +9009,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>28.8</v>
+        <v>91.2</v>
       </c>
       <c r="C358" t="n">
-        <v>77.5</v>
+        <v>2.5</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -9033,10 +9033,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>110.5</v>
+        <v>9.5</v>
       </c>
       <c r="C359" t="n">
-        <v>75.90000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -9057,10 +9057,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>35.3</v>
+        <v>84.7</v>
       </c>
       <c r="C360" t="n">
-        <v>11.3</v>
+        <v>68.7</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -9081,10 +9081,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C361" t="n">
-        <v>13.5</v>
+        <v>66.5</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -9105,10 +9105,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>25.2</v>
+        <v>94.8</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -9129,10 +9129,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C363" t="n">
-        <v>51.5</v>
+        <v>28.5</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -9153,10 +9153,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>78.90000000000001</v>
+        <v>41.1</v>
       </c>
       <c r="C364" t="n">
-        <v>77.5</v>
+        <v>2.5</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -9177,10 +9177,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>72.8</v>
+        <v>47.2</v>
       </c>
       <c r="C365" t="n">
-        <v>38.6</v>
+        <v>41.4</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -9201,10 +9201,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>105.6</v>
+        <v>14.4</v>
       </c>
       <c r="C366" t="n">
-        <v>50.4</v>
+        <v>29.6</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -9225,10 +9225,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C367" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -9249,10 +9249,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>115.6</v>
+        <v>4.4</v>
       </c>
       <c r="C368" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -9273,10 +9273,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>82.09999999999999</v>
+        <v>37.9</v>
       </c>
       <c r="C369" t="n">
-        <v>52.2</v>
+        <v>27.8</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -9297,10 +9297,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>70.90000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="C370" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -9321,10 +9321,10 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>91.40000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="C371" t="n">
-        <v>46.9</v>
+        <v>33.1</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -9345,10 +9345,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>114.2</v>
+        <v>5.8</v>
       </c>
       <c r="C372" t="n">
-        <v>35.3</v>
+        <v>44.7</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -9369,10 +9369,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C373" t="n">
-        <v>44.3</v>
+        <v>35.7</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -9393,10 +9393,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C374" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -9417,10 +9417,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>88.09999999999999</v>
+        <v>31.9</v>
       </c>
       <c r="C375" t="n">
-        <v>73.3</v>
+        <v>6.7</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -9441,10 +9441,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>64.90000000000001</v>
+        <v>55.1</v>
       </c>
       <c r="C376" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -9465,10 +9465,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C377" t="n">
-        <v>32.3</v>
+        <v>47.7</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -9489,10 +9489,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>24.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C378" t="n">
-        <v>32.8</v>
+        <v>47.2</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -9513,10 +9513,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>63.6</v>
+        <v>56.4</v>
       </c>
       <c r="C379" t="n">
-        <v>53.2</v>
+        <v>26.8</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -9537,10 +9537,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -9561,10 +9561,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>22.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>44.5</v>
+        <v>35.5</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -9585,10 +9585,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C382" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -9609,10 +9609,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -9633,10 +9633,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C384" t="n">
-        <v>46.7</v>
+        <v>33.3</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -9657,10 +9657,10 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>104.5</v>
+        <v>15.5</v>
       </c>
       <c r="C385" t="n">
-        <v>18.7</v>
+        <v>61.3</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -9681,10 +9681,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>89.40000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="C386" t="n">
-        <v>60.7</v>
+        <v>19.3</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -9705,10 +9705,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>67.2</v>
+        <v>52.8</v>
       </c>
       <c r="C387" t="n">
-        <v>18.1</v>
+        <v>61.9</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -9729,10 +9729,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>38.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C388" t="n">
-        <v>73.5</v>
+        <v>6.5</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -9753,10 +9753,10 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>96.7</v>
+        <v>23.3</v>
       </c>
       <c r="C389" t="n">
-        <v>32.7</v>
+        <v>47.3</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -9777,10 +9777,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>87.59999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="C390" t="n">
-        <v>64.8</v>
+        <v>15.2</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -9801,10 +9801,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C391" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -9825,10 +9825,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C392" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -9849,10 +9849,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>28.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -9873,10 +9873,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>92.09999999999999</v>
+        <v>27.9</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -9897,10 +9897,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>27.5</v>
+        <v>92.5</v>
       </c>
       <c r="C395" t="n">
-        <v>9.099999999999994</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -9921,10 +9921,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>89.8</v>
+        <v>30.2</v>
       </c>
       <c r="C396" t="n">
-        <v>28.2</v>
+        <v>51.8</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -9945,10 +9945,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>72.90000000000001</v>
+        <v>47.1</v>
       </c>
       <c r="C397" t="n">
-        <v>70.5</v>
+        <v>9.5</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -9969,10 +9969,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>44.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C398" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -9993,10 +9993,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>87.5</v>
+        <v>32.5</v>
       </c>
       <c r="C399" t="n">
-        <v>26.7</v>
+        <v>53.3</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -10017,10 +10017,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C400" t="n">
-        <v>39.2</v>
+        <v>40.8</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -10041,10 +10041,10 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>75.90000000000001</v>
+        <v>44.1</v>
       </c>
       <c r="C401" t="n">
-        <v>16.7</v>
+        <v>63.3</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10065,10 +10065,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C402" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10089,10 +10089,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -10113,10 +10113,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C404" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -10137,10 +10137,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>98.09999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="C405" t="n">
-        <v>24.4</v>
+        <v>55.6</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -10161,10 +10161,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C406" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -10185,10 +10185,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>55.5</v>
+        <v>64.5</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -10209,10 +10209,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>71.59999999999999</v>
+        <v>48.4</v>
       </c>
       <c r="C408" t="n">
-        <v>26.8</v>
+        <v>53.2</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -10233,10 +10233,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C409" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -10257,10 +10257,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>7.700000000000003</v>
+        <v>112.3</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -10281,10 +10281,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>51.7</v>
+        <v>68.3</v>
       </c>
       <c r="C411" t="n">
-        <v>9.900000000000006</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -10305,10 +10305,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>116.9</v>
+        <v>3.1</v>
       </c>
       <c r="C412" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -10329,10 +10329,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>63.9</v>
+        <v>56.1</v>
       </c>
       <c r="C413" t="n">
-        <v>44.1</v>
+        <v>35.9</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -10353,10 +10353,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C414" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -10377,10 +10377,10 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>37.8</v>
+        <v>82.2</v>
       </c>
       <c r="C415" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -10401,10 +10401,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>63.3</v>
+        <v>56.7</v>
       </c>
       <c r="C416" t="n">
-        <v>54.4</v>
+        <v>25.6</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -10425,10 +10425,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -10449,10 +10449,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C418" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -10473,10 +10473,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C419" t="n">
-        <v>41.4</v>
+        <v>38.6</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -10497,10 +10497,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>35.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C420" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -10521,10 +10521,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>77.59999999999999</v>
+        <v>42.4</v>
       </c>
       <c r="C421" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -10545,10 +10545,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>77.40000000000001</v>
+        <v>42.6</v>
       </c>
       <c r="C422" t="n">
-        <v>37.1</v>
+        <v>42.9</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -10569,10 +10569,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>89.5</v>
+        <v>30.5</v>
       </c>
       <c r="C423" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -10593,10 +10593,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -10617,10 +10617,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -10641,10 +10641,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>62.5</v>
+        <v>57.5</v>
       </c>
       <c r="C426" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -10665,10 +10665,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>99.59999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="C427" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -10689,10 +10689,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>47.2</v>
+        <v>72.8</v>
       </c>
       <c r="C428" t="n">
-        <v>28.4</v>
+        <v>51.6</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -10713,10 +10713,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>52.8</v>
+        <v>67.2</v>
       </c>
       <c r="C429" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -10737,10 +10737,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C430" t="n">
-        <v>23.9</v>
+        <v>56.1</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -10761,10 +10761,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>68.8</v>
+        <v>51.2</v>
       </c>
       <c r="C431" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -10785,10 +10785,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>26.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -10809,10 +10809,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>24.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C433" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -10833,10 +10833,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>39.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C434" t="n">
-        <v>50.7</v>
+        <v>29.3</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -10857,10 +10857,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>97.09999999999999</v>
+        <v>22.9</v>
       </c>
       <c r="C435" t="n">
-        <v>8.099999999999994</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -10881,10 +10881,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>41.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C436" t="n">
-        <v>51.5</v>
+        <v>28.5</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -10905,10 +10905,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>30.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C437" t="n">
-        <v>58.4</v>
+        <v>21.6</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -10929,10 +10929,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>84.59999999999999</v>
+        <v>35.4</v>
       </c>
       <c r="C438" t="n">
-        <v>40.9</v>
+        <v>39.1</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -10953,10 +10953,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>93.2</v>
+        <v>26.8</v>
       </c>
       <c r="C439" t="n">
-        <v>53.5</v>
+        <v>26.5</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -10977,10 +10977,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>41.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C440" t="n">
-        <v>60.4</v>
+        <v>19.6</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -11001,10 +11001,10 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>69.90000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="C441" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -11025,10 +11025,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>87.90000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="C442" t="n">
-        <v>52.3</v>
+        <v>27.7</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -11049,10 +11049,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C443" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -11073,10 +11073,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>96.90000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="C444" t="n">
-        <v>2.200000000000003</v>
+        <v>77.8</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -11097,10 +11097,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>104.8</v>
+        <v>15.2</v>
       </c>
       <c r="C445" t="n">
-        <v>49.9</v>
+        <v>30.1</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -11121,10 +11121,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>54.2</v>
+        <v>65.8</v>
       </c>
       <c r="C446" t="n">
-        <v>71.09999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -11145,10 +11145,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>57.4</v>
+        <v>62.6</v>
       </c>
       <c r="C447" t="n">
-        <v>5.900000000000006</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -11169,10 +11169,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>78.90000000000001</v>
+        <v>41.1</v>
       </c>
       <c r="C448" t="n">
-        <v>20.1</v>
+        <v>59.9</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -11193,10 +11193,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>106.5</v>
+        <v>13.5</v>
       </c>
       <c r="C449" t="n">
-        <v>49.8</v>
+        <v>30.2</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -11217,10 +11217,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>32.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -11241,10 +11241,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>116.4</v>
+        <v>3.6</v>
       </c>
       <c r="C451" t="n">
-        <v>67.2</v>
+        <v>12.8</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -11265,10 +11265,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -11289,10 +11289,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>87.5</v>
+        <v>32.5</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -11313,10 +11313,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>97.09999999999999</v>
+        <v>22.9</v>
       </c>
       <c r="C454" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -11337,10 +11337,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>35.2</v>
+        <v>84.8</v>
       </c>
       <c r="C455" t="n">
-        <v>8.900000000000006</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -11361,10 +11361,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>37.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C456" t="n">
-        <v>54.3</v>
+        <v>25.7</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -11385,10 +11385,10 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>46.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C457" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -11409,10 +11409,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C458" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -11433,10 +11433,10 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>35.3</v>
+        <v>84.7</v>
       </c>
       <c r="C459" t="n">
-        <v>47.7</v>
+        <v>32.3</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -11457,10 +11457,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C460" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -11481,10 +11481,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>63.7</v>
+        <v>56.3</v>
       </c>
       <c r="C461" t="n">
-        <v>25.7</v>
+        <v>54.3</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -11505,10 +11505,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>22.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C462" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -11529,10 +11529,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>35.5</v>
+        <v>84.5</v>
       </c>
       <c r="C463" t="n">
-        <v>61.3</v>
+        <v>18.7</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -11553,10 +11553,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>63.3</v>
+        <v>56.7</v>
       </c>
       <c r="C464" t="n">
-        <v>59.2</v>
+        <v>20.8</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -11577,10 +11577,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>99.8</v>
+        <v>20.2</v>
       </c>
       <c r="C465" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -11601,10 +11601,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>14.5</v>
+        <v>105.5</v>
       </c>
       <c r="C466" t="n">
-        <v>22.8</v>
+        <v>57.2</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -11625,10 +11625,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>84.2</v>
+        <v>35.8</v>
       </c>
       <c r="C467" t="n">
-        <v>40.3</v>
+        <v>39.7</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -11649,10 +11649,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>67.59999999999999</v>
+        <v>52.4</v>
       </c>
       <c r="C468" t="n">
-        <v>37.3</v>
+        <v>42.7</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -11673,10 +11673,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>87.2</v>
+        <v>32.8</v>
       </c>
       <c r="C469" t="n">
-        <v>60.8</v>
+        <v>19.2</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -11697,10 +11697,10 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>78.8</v>
+        <v>41.2</v>
       </c>
       <c r="C470" t="n">
-        <v>18.9</v>
+        <v>61.1</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -11721,10 +11721,10 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>74.40000000000001</v>
+        <v>45.6</v>
       </c>
       <c r="C471" t="n">
-        <v>17.6</v>
+        <v>62.4</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -11745,10 +11745,10 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>33.5</v>
+        <v>86.5</v>
       </c>
       <c r="C472" t="n">
-        <v>4.599999999999994</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -11769,10 +11769,10 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C473" t="n">
-        <v>35.9</v>
+        <v>44.1</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -11793,10 +11793,10 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C474" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -11817,10 +11817,10 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>98.59999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="C475" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -11841,10 +11841,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>42.7</v>
+        <v>77.3</v>
       </c>
       <c r="C476" t="n">
-        <v>6.900000000000006</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -11865,10 +11865,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>81.40000000000001</v>
+        <v>38.6</v>
       </c>
       <c r="C477" t="n">
-        <v>46.9</v>
+        <v>33.1</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -11889,10 +11889,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>58.3</v>
+        <v>61.7</v>
       </c>
       <c r="C478" t="n">
-        <v>54.2</v>
+        <v>25.8</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -11913,10 +11913,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>104.7</v>
+        <v>15.3</v>
       </c>
       <c r="C479" t="n">
-        <v>73.59999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -11937,10 +11937,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>106.8</v>
+        <v>13.2</v>
       </c>
       <c r="C480" t="n">
-        <v>62.3</v>
+        <v>17.7</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -11961,10 +11961,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="C481" t="n">
-        <v>32.4</v>
+        <v>47.6</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -11985,10 +11985,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>62.9</v>
+        <v>57.1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -12009,10 +12009,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>64.59999999999999</v>
+        <v>55.4</v>
       </c>
       <c r="C483" t="n">
-        <v>7.400000000000006</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -12033,10 +12033,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>109.4</v>
+        <v>10.6</v>
       </c>
       <c r="C484" t="n">
-        <v>41.5</v>
+        <v>38.5</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -12057,10 +12057,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>63.3</v>
+        <v>56.7</v>
       </c>
       <c r="C485" t="n">
-        <v>68.09999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -12081,10 +12081,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -12105,10 +12105,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>8.299999999999997</v>
+        <v>111.7</v>
       </c>
       <c r="C487" t="n">
-        <v>60.8</v>
+        <v>19.2</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -12129,10 +12129,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C488" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -12153,10 +12153,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>56.6</v>
+        <v>63.4</v>
       </c>
       <c r="C489" t="n">
-        <v>78.90000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -12177,10 +12177,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>25.3</v>
+        <v>94.7</v>
       </c>
       <c r="C490" t="n">
-        <v>4.900000000000006</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -12201,10 +12201,10 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>85.7</v>
+        <v>34.3</v>
       </c>
       <c r="C491" t="n">
-        <v>8.799999999999997</v>
+        <v>71.2</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -12225,10 +12225,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>73.7</v>
+        <v>46.3</v>
       </c>
       <c r="C492" t="n">
-        <v>8.299999999999997</v>
+        <v>71.7</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -12249,10 +12249,10 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>46.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C493" t="n">
-        <v>26.1</v>
+        <v>53.9</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -12273,10 +12273,10 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>20.2</v>
+        <v>99.8</v>
       </c>
       <c r="C494" t="n">
-        <v>51.9</v>
+        <v>28.1</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -12297,10 +12297,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C495" t="n">
-        <v>5.599999999999994</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -12321,10 +12321,10 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>108.1</v>
+        <v>11.9</v>
       </c>
       <c r="C496" t="n">
-        <v>36.1</v>
+        <v>43.9</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -12345,10 +12345,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>96.2</v>
+        <v>23.8</v>
       </c>
       <c r="C497" t="n">
-        <v>8.799999999999997</v>
+        <v>71.2</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -12369,10 +12369,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>9.900000000000006</v>
+        <v>110.1</v>
       </c>
       <c r="C498" t="n">
-        <v>67.40000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -12393,10 +12393,10 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>23.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C499" t="n">
-        <v>48.8</v>
+        <v>31.2</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -12417,10 +12417,10 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>36.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C500" t="n">
-        <v>65.90000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -12441,10 +12441,10 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>63.4</v>
+        <v>56.6</v>
       </c>
       <c r="C501" t="n">
-        <v>13.3</v>
+        <v>66.7</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -12465,10 +12465,10 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>101.2</v>
+        <v>18.8</v>
       </c>
       <c r="C502" t="n">
-        <v>4.5</v>
+        <v>75.5</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -12489,10 +12489,10 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -12513,10 +12513,10 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>62.8</v>
+        <v>57.2</v>
       </c>
       <c r="C504" t="n">
-        <v>10.7</v>
+        <v>69.3</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -12537,10 +12537,10 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>57.1</v>
+        <v>62.9</v>
       </c>
       <c r="C505" t="n">
-        <v>35.8</v>
+        <v>44.2</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -12561,10 +12561,10 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>82.3</v>
+        <v>37.7</v>
       </c>
       <c r="C506" t="n">
-        <v>74.59999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -12585,10 +12585,10 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>45.8</v>
+        <v>74.2</v>
       </c>
       <c r="C507" t="n">
-        <v>8.5</v>
+        <v>71.5</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -12609,10 +12609,10 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -12633,10 +12633,10 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>105.3</v>
+        <v>14.7</v>
       </c>
       <c r="C509" t="n">
-        <v>44.3</v>
+        <v>35.7</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -12657,10 +12657,10 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>44.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C510" t="n">
-        <v>25.6</v>
+        <v>54.4</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -12681,10 +12681,10 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>76.8</v>
+        <v>43.2</v>
       </c>
       <c r="C511" t="n">
-        <v>14.5</v>
+        <v>65.5</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -12705,10 +12705,10 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>50.5</v>
+        <v>69.5</v>
       </c>
       <c r="C512" t="n">
-        <v>60.5</v>
+        <v>19.5</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -12729,10 +12729,10 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>103.1</v>
+        <v>16.9</v>
       </c>
       <c r="C513" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -12753,10 +12753,10 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C514" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -12777,10 +12777,10 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -12801,10 +12801,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C516" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -12825,10 +12825,10 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C517" t="n">
-        <v>43.9</v>
+        <v>36.1</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -12849,10 +12849,10 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>67.09999999999999</v>
+        <v>52.9</v>
       </c>
       <c r="C518" t="n">
-        <v>60.4</v>
+        <v>19.6</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -12873,10 +12873,10 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>110.9</v>
+        <v>9.1</v>
       </c>
       <c r="C519" t="n">
-        <v>70.40000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -12897,10 +12897,10 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>33.3</v>
+        <v>86.7</v>
       </c>
       <c r="C520" t="n">
-        <v>68.40000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -12921,10 +12921,10 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>100.7</v>
+        <v>19.3</v>
       </c>
       <c r="C521" t="n">
-        <v>61.4</v>
+        <v>18.6</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -12945,10 +12945,10 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>85.5</v>
+        <v>34.5</v>
       </c>
       <c r="C522" t="n">
-        <v>44.8</v>
+        <v>35.2</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -12969,10 +12969,10 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>39.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C523" t="n">
-        <v>42.1</v>
+        <v>37.9</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -12993,10 +12993,10 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>23.2</v>
+        <v>96.8</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -13017,10 +13017,10 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>75.5</v>
+        <v>44.5</v>
       </c>
       <c r="C525" t="n">
-        <v>27.7</v>
+        <v>52.3</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -13041,10 +13041,10 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>71.7</v>
+        <v>48.3</v>
       </c>
       <c r="C526" t="n">
-        <v>32.8</v>
+        <v>47.2</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -13065,10 +13065,10 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -13089,10 +13089,10 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>69.90000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -13113,10 +13113,10 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C529" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -13137,10 +13137,10 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>104.1</v>
+        <v>15.9</v>
       </c>
       <c r="C530" t="n">
-        <v>55.7</v>
+        <v>24.3</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -13161,10 +13161,10 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>91.59999999999999</v>
+        <v>28.4</v>
       </c>
       <c r="C531" t="n">
-        <v>30.4</v>
+        <v>49.6</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -13185,10 +13185,10 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -13209,10 +13209,10 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>47.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C533" t="n">
-        <v>27.5</v>
+        <v>52.5</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -13233,10 +13233,10 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>76.90000000000001</v>
+        <v>43.1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -13257,10 +13257,10 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>47.3</v>
+        <v>72.7</v>
       </c>
       <c r="C535" t="n">
-        <v>29.2</v>
+        <v>50.8</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -13281,10 +13281,10 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -13305,10 +13305,10 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>13.8</v>
+        <v>106.2</v>
       </c>
       <c r="C537" t="n">
-        <v>10.8</v>
+        <v>69.2</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -13329,10 +13329,10 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>24.7</v>
+        <v>95.3</v>
       </c>
       <c r="C538" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -13353,10 +13353,10 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>85.8</v>
+        <v>34.2</v>
       </c>
       <c r="C539" t="n">
-        <v>29.2</v>
+        <v>50.8</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -13377,10 +13377,10 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>82.09999999999999</v>
+        <v>37.9</v>
       </c>
       <c r="C540" t="n">
-        <v>43.4</v>
+        <v>36.6</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -13401,10 +13401,10 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>16.90000000000001</v>
+        <v>103.1</v>
       </c>
       <c r="C541" t="n">
-        <v>70.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -13425,10 +13425,10 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>69.90000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="C542" t="n">
-        <v>63.5</v>
+        <v>16.5</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -13449,10 +13449,10 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>84.3</v>
+        <v>35.7</v>
       </c>
       <c r="C543" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -13473,10 +13473,10 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>31.5</v>
+        <v>88.5</v>
       </c>
       <c r="C544" t="n">
-        <v>22.8</v>
+        <v>57.2</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -13497,10 +13497,10 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -13521,10 +13521,10 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>7.200000000000003</v>
+        <v>112.8</v>
       </c>
       <c r="C546" t="n">
-        <v>46.5</v>
+        <v>33.5</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -13545,10 +13545,10 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>27.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C547" t="n">
-        <v>58.8</v>
+        <v>21.2</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -13569,10 +13569,10 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>59.8</v>
+        <v>60.2</v>
       </c>
       <c r="C548" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -13593,10 +13593,10 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>76.5</v>
+        <v>43.5</v>
       </c>
       <c r="C549" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -13617,10 +13617,10 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>107.1</v>
+        <v>12.9</v>
       </c>
       <c r="C550" t="n">
-        <v>33.8</v>
+        <v>46.2</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -13641,10 +13641,10 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C551" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -13665,10 +13665,10 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C552" t="n">
-        <v>41.9</v>
+        <v>38.1</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -13689,10 +13689,10 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -13713,10 +13713,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C554" t="n">
-        <v>68.5</v>
+        <v>11.5</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -13737,10 +13737,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C555" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -13761,10 +13761,10 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C556" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -13785,10 +13785,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C557" t="n">
-        <v>35.9</v>
+        <v>44.1</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -13809,10 +13809,10 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>58.3</v>
+        <v>61.7</v>
       </c>
       <c r="C558" t="n">
-        <v>7.900000000000006</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -13833,10 +13833,10 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>73.09999999999999</v>
+        <v>46.9</v>
       </c>
       <c r="C559" t="n">
-        <v>26.4</v>
+        <v>53.6</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -13857,10 +13857,10 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C560" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -13881,10 +13881,10 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C561" t="n">
-        <v>53.6</v>
+        <v>26.4</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -13905,10 +13905,10 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>105.4</v>
+        <v>14.6</v>
       </c>
       <c r="C562" t="n">
-        <v>29.9</v>
+        <v>50.1</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -13929,10 +13929,10 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>47.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C563" t="n">
-        <v>24.7</v>
+        <v>55.3</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -13953,10 +13953,10 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -13977,10 +13977,10 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>43.8</v>
+        <v>76.2</v>
       </c>
       <c r="C565" t="n">
-        <v>20.7</v>
+        <v>59.3</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -14001,10 +14001,10 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>36.5</v>
+        <v>83.5</v>
       </c>
       <c r="C566" t="n">
-        <v>73.7</v>
+        <v>6.3</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -14025,10 +14025,10 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>89.40000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="C567" t="n">
-        <v>25.3</v>
+        <v>54.7</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -14049,10 +14049,10 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>22.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C568" t="n">
-        <v>51.8</v>
+        <v>28.2</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -14073,10 +14073,10 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>14.40000000000001</v>
+        <v>105.6</v>
       </c>
       <c r="C569" t="n">
-        <v>61.3</v>
+        <v>18.7</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -14097,10 +14097,10 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C570" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -14121,10 +14121,10 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -14145,10 +14145,10 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>55.90000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C572" t="n">
-        <v>24.3</v>
+        <v>55.7</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -14169,10 +14169,10 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C573" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -14193,10 +14193,10 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>13.3</v>
+        <v>106.7</v>
       </c>
       <c r="C574" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -14217,10 +14217,10 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="C575" t="n">
-        <v>17.2</v>
+        <v>62.8</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -14241,10 +14241,10 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>66.90000000000001</v>
+        <v>53.1</v>
       </c>
       <c r="C576" t="n">
-        <v>18.3</v>
+        <v>61.7</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -14265,10 +14265,10 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>70.90000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="C577" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -14289,10 +14289,10 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>54.90000000000001</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C578" t="n">
-        <v>75.5</v>
+        <v>4.5</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -14313,10 +14313,10 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>81.40000000000001</v>
+        <v>38.6</v>
       </c>
       <c r="C579" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -14337,10 +14337,10 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>42.8</v>
+        <v>77.2</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -14361,10 +14361,10 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C581" t="n">
-        <v>74.7</v>
+        <v>5.3</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -14385,10 +14385,10 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>42.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C582" t="n">
-        <v>49.3</v>
+        <v>30.7</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -14409,10 +14409,10 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>36.3</v>
+        <v>83.7</v>
       </c>
       <c r="C583" t="n">
-        <v>15.7</v>
+        <v>64.3</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -14433,10 +14433,10 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>65.2</v>
+        <v>54.8</v>
       </c>
       <c r="C584" t="n">
-        <v>8.799999999999997</v>
+        <v>71.2</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -14457,10 +14457,10 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C585" t="n">
-        <v>17.3</v>
+        <v>62.7</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -14481,10 +14481,10 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>50.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C586" t="n">
-        <v>72.8</v>
+        <v>7.2</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -14505,10 +14505,10 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>60.7</v>
+        <v>59.3</v>
       </c>
       <c r="C587" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -14529,10 +14529,10 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>19.5</v>
+        <v>100.5</v>
       </c>
       <c r="C588" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -14553,10 +14553,10 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>33.5</v>
+        <v>86.5</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -14577,10 +14577,10 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>19.7</v>
+        <v>100.3</v>
       </c>
       <c r="C590" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -14601,10 +14601,10 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>90.8</v>
+        <v>29.2</v>
       </c>
       <c r="C591" t="n">
-        <v>46.1</v>
+        <v>33.9</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -14625,10 +14625,10 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>27.3</v>
+        <v>92.7</v>
       </c>
       <c r="C592" t="n">
-        <v>44.2</v>
+        <v>35.8</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -14649,10 +14649,10 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>61.6</v>
+        <v>58.4</v>
       </c>
       <c r="C593" t="n">
-        <v>52.9</v>
+        <v>27.1</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -14673,10 +14673,10 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C594" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -14697,10 +14697,10 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>75.7</v>
+        <v>44.3</v>
       </c>
       <c r="C595" t="n">
-        <v>27.8</v>
+        <v>52.2</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -14721,10 +14721,10 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>8.599999999999994</v>
+        <v>111.4</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -14745,10 +14745,10 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>36.8</v>
+        <v>83.2</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -14769,10 +14769,10 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>102.2</v>
+        <v>17.8</v>
       </c>
       <c r="C598" t="n">
-        <v>21.3</v>
+        <v>58.7</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -14793,10 +14793,10 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>91.5</v>
+        <v>28.5</v>
       </c>
       <c r="C599" t="n">
-        <v>12.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -14817,10 +14817,10 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>41.5</v>
+        <v>78.5</v>
       </c>
       <c r="C600" t="n">
-        <v>66.7</v>
+        <v>13.3</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -14841,10 +14841,10 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>34.5</v>
+        <v>85.5</v>
       </c>
       <c r="C601" t="n">
-        <v>20.4</v>
+        <v>59.6</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -14865,10 +14865,10 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>51.3</v>
+        <v>68.7</v>
       </c>
       <c r="C602" t="n">
-        <v>75.2</v>
+        <v>4.8</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -14889,10 +14889,10 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C603" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -14913,10 +14913,10 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C604" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -14937,10 +14937,10 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>83.40000000000001</v>
+        <v>36.6</v>
       </c>
       <c r="C605" t="n">
-        <v>24.8</v>
+        <v>55.2</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -14961,10 +14961,10 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>84.7</v>
+        <v>35.3</v>
       </c>
       <c r="C606" t="n">
-        <v>39.2</v>
+        <v>40.8</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -14985,10 +14985,10 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -15009,10 +15009,10 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>93.59999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="C608" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -15033,10 +15033,10 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>1.700000000000003</v>
+        <v>118.3</v>
       </c>
       <c r="C609" t="n">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -15057,10 +15057,10 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>108.8</v>
+        <v>11.2</v>
       </c>
       <c r="C610" t="n">
-        <v>66.7</v>
+        <v>13.3</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -15081,10 +15081,10 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>69.5</v>
+        <v>50.5</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -15105,10 +15105,10 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -15129,10 +15129,10 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="C613" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -15153,10 +15153,10 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>60.4</v>
+        <v>59.6</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -15177,10 +15177,10 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C615" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -15201,10 +15201,10 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>68.7</v>
+        <v>51.3</v>
       </c>
       <c r="C616" t="n">
-        <v>48.7</v>
+        <v>31.3</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -15225,10 +15225,10 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>41.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C617" t="n">
-        <v>36.8</v>
+        <v>43.2</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -15249,10 +15249,10 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>55.5</v>
+        <v>64.5</v>
       </c>
       <c r="C618" t="n">
-        <v>64.90000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -15273,10 +15273,10 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>94.3</v>
+        <v>25.7</v>
       </c>
       <c r="C619" t="n">
-        <v>42.4</v>
+        <v>37.6</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -15297,10 +15297,10 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>35.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C620" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -15321,10 +15321,10 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>102.2</v>
+        <v>17.8</v>
       </c>
       <c r="C621" t="n">
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -15345,10 +15345,10 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>24.2</v>
+        <v>95.8</v>
       </c>
       <c r="C622" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -15369,10 +15369,10 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>44.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C623" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -15393,10 +15393,10 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>45.5</v>
+        <v>74.5</v>
       </c>
       <c r="C624" t="n">
-        <v>35.6</v>
+        <v>44.4</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -15417,10 +15417,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>64.2</v>
+        <v>55.8</v>
       </c>
       <c r="C625" t="n">
-        <v>67.2</v>
+        <v>12.8</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -15441,10 +15441,10 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -15465,10 +15465,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>80.59999999999999</v>
+        <v>39.4</v>
       </c>
       <c r="C627" t="n">
-        <v>38.1</v>
+        <v>41.9</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -15489,10 +15489,10 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>4.299999999999997</v>
+        <v>115.7</v>
       </c>
       <c r="C628" t="n">
-        <v>5.200000000000003</v>
+        <v>74.8</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -15513,10 +15513,10 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C629" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -15537,10 +15537,10 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>97.5</v>
+        <v>22.5</v>
       </c>
       <c r="C630" t="n">
-        <v>39.2</v>
+        <v>40.8</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -15561,10 +15561,10 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>98.40000000000001</v>
+        <v>21.6</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -15585,10 +15585,10 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>111.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C632" t="n">
-        <v>44.7</v>
+        <v>35.3</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -15609,10 +15609,10 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>69.3</v>
+        <v>50.7</v>
       </c>
       <c r="C633" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -15633,10 +15633,10 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>12.3</v>
+        <v>107.7</v>
       </c>
       <c r="C634" t="n">
-        <v>9.900000000000006</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -15657,10 +15657,10 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>67.09999999999999</v>
+        <v>52.9</v>
       </c>
       <c r="C635" t="n">
-        <v>42.8</v>
+        <v>37.2</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -15681,10 +15681,10 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>94.2</v>
+        <v>25.8</v>
       </c>
       <c r="C636" t="n">
-        <v>3.700000000000003</v>
+        <v>76.3</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -15705,10 +15705,10 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>56.1</v>
+        <v>63.9</v>
       </c>
       <c r="C637" t="n">
-        <v>14.59999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -15729,10 +15729,10 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>109.2</v>
+        <v>10.8</v>
       </c>
       <c r="C638" t="n">
-        <v>48.2</v>
+        <v>31.8</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -15753,10 +15753,10 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>64.40000000000001</v>
+        <v>55.6</v>
       </c>
       <c r="C639" t="n">
-        <v>55.9</v>
+        <v>24.1</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -15777,10 +15777,10 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>46.8</v>
+        <v>73.2</v>
       </c>
       <c r="C640" t="n">
-        <v>8.599999999999994</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -15801,10 +15801,10 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C641" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -15825,10 +15825,10 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>77.40000000000001</v>
+        <v>42.6</v>
       </c>
       <c r="C642" t="n">
-        <v>55.6</v>
+        <v>24.4</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -15849,10 +15849,10 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>53.7</v>
+        <v>66.3</v>
       </c>
       <c r="C643" t="n">
-        <v>76.2</v>
+        <v>3.8</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -15873,10 +15873,10 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>38.2</v>
+        <v>81.8</v>
       </c>
       <c r="C644" t="n">
-        <v>36.2</v>
+        <v>43.8</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -15897,10 +15897,10 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C645" t="n">
-        <v>43.9</v>
+        <v>36.1</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -15921,10 +15921,10 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>78.59999999999999</v>
+        <v>41.4</v>
       </c>
       <c r="C646" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -15945,10 +15945,10 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C647" t="n">
-        <v>28.1</v>
+        <v>51.9</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -15969,10 +15969,10 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -15993,10 +15993,10 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>87.40000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="C649" t="n">
-        <v>33.2</v>
+        <v>46.8</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -16017,10 +16017,10 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C650" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -16041,10 +16041,10 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C651" t="n">
-        <v>44.4</v>
+        <v>35.6</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -16065,10 +16065,10 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C652" t="n">
-        <v>60.6</v>
+        <v>19.4</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -16089,10 +16089,10 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>58.6</v>
+        <v>61.4</v>
       </c>
       <c r="C653" t="n">
-        <v>29.7</v>
+        <v>50.3</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -16113,10 +16113,10 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C654" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -16137,10 +16137,10 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>71.7</v>
+        <v>48.3</v>
       </c>
       <c r="C655" t="n">
-        <v>6.599999999999994</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -16161,10 +16161,10 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>22.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C656" t="n">
-        <v>20.2</v>
+        <v>59.8</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -16185,10 +16185,10 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C657" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -16209,10 +16209,10 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>34.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C658" t="n">
-        <v>24.7</v>
+        <v>55.3</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -16233,10 +16233,10 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C659" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -16257,10 +16257,10 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>33.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C660" t="n">
-        <v>65.09999999999999</v>
+        <v>14.9</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -16281,10 +16281,10 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>63.9</v>
+        <v>56.1</v>
       </c>
       <c r="C661" t="n">
-        <v>4.799999999999997</v>
+        <v>75.2</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -16305,10 +16305,10 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C662" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -16329,10 +16329,10 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C663" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -16353,10 +16353,10 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -16377,10 +16377,10 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>42.7</v>
+        <v>77.3</v>
       </c>
       <c r="C665" t="n">
-        <v>66.59999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -16401,10 +16401,10 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>39.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C666" t="n">
-        <v>67.2</v>
+        <v>12.8</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -16425,10 +16425,10 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>56.2</v>
+        <v>63.8</v>
       </c>
       <c r="C667" t="n">
-        <v>46.1</v>
+        <v>33.9</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -16449,10 +16449,10 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -16473,10 +16473,10 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -16497,10 +16497,10 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>109.3</v>
+        <v>10.7</v>
       </c>
       <c r="C670" t="n">
-        <v>47.7</v>
+        <v>32.3</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -16521,10 +16521,10 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C671" t="n">
-        <v>35.9</v>
+        <v>44.1</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -16545,10 +16545,10 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>54.09999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C672" t="n">
-        <v>13.7</v>
+        <v>66.3</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -16569,10 +16569,10 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>69.90000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="C673" t="n">
-        <v>27.5</v>
+        <v>52.5</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -16593,10 +16593,10 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C674" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -16617,10 +16617,10 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>78.40000000000001</v>
+        <v>41.6</v>
       </c>
       <c r="C675" t="n">
-        <v>10.8</v>
+        <v>69.2</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -16641,10 +16641,10 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>23.3</v>
+        <v>96.7</v>
       </c>
       <c r="C676" t="n">
-        <v>46.4</v>
+        <v>33.6</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -16665,10 +16665,10 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C677" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -16689,10 +16689,10 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>109.1</v>
+        <v>10.9</v>
       </c>
       <c r="C678" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -16713,10 +16713,10 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C679" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -16737,10 +16737,10 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>85.40000000000001</v>
+        <v>34.6</v>
       </c>
       <c r="C680" t="n">
-        <v>11.2</v>
+        <v>68.8</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -16761,10 +16761,10 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>107.2</v>
+        <v>12.8</v>
       </c>
       <c r="C681" t="n">
-        <v>33.5</v>
+        <v>46.5</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -16785,10 +16785,10 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -16809,10 +16809,10 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>63.7</v>
+        <v>56.3</v>
       </c>
       <c r="C683" t="n">
-        <v>3.799999999999997</v>
+        <v>76.2</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -16833,10 +16833,10 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>72.09999999999999</v>
+        <v>47.9</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -16857,10 +16857,10 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>90.59999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="C685" t="n">
-        <v>36.6</v>
+        <v>43.4</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -16881,10 +16881,10 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C686" t="n">
-        <v>34.3</v>
+        <v>45.7</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -16905,10 +16905,10 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>106.5</v>
+        <v>13.5</v>
       </c>
       <c r="C687" t="n">
-        <v>43.2</v>
+        <v>36.8</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -16929,10 +16929,10 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>32.8</v>
+        <v>87.2</v>
       </c>
       <c r="C688" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -16953,10 +16953,10 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>10.09999999999999</v>
+        <v>109.9</v>
       </c>
       <c r="C689" t="n">
-        <v>12.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -16977,10 +16977,10 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>35.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C690" t="n">
-        <v>18.8</v>
+        <v>61.2</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -17001,10 +17001,10 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>27.8</v>
+        <v>92.2</v>
       </c>
       <c r="C691" t="n">
-        <v>71.09999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -17025,10 +17025,10 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>24.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C692" t="n">
-        <v>30.5</v>
+        <v>49.5</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -17049,10 +17049,10 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>39.7</v>
+        <v>80.3</v>
       </c>
       <c r="C693" t="n">
-        <v>27.5</v>
+        <v>52.5</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -17073,10 +17073,10 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C694" t="n">
-        <v>53.8</v>
+        <v>26.2</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -17097,10 +17097,10 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>73.8</v>
+        <v>46.2</v>
       </c>
       <c r="C695" t="n">
-        <v>49.8</v>
+        <v>30.2</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -17121,10 +17121,10 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>41.5</v>
+        <v>78.5</v>
       </c>
       <c r="C696" t="n">
-        <v>56.3</v>
+        <v>23.7</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -17145,10 +17145,10 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>71.5</v>
+        <v>48.5</v>
       </c>
       <c r="C697" t="n">
-        <v>71.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -17169,10 +17169,10 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -17193,10 +17193,10 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>41.5</v>
+        <v>78.5</v>
       </c>
       <c r="C699" t="n">
-        <v>5.400000000000006</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -17217,10 +17217,10 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>106.1</v>
+        <v>13.9</v>
       </c>
       <c r="C700" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -17241,10 +17241,10 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>94.2</v>
+        <v>25.8</v>
       </c>
       <c r="C701" t="n">
-        <v>52.8</v>
+        <v>27.2</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -17265,10 +17265,10 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>55.09999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C702" t="n">
-        <v>15.40000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -17289,10 +17289,10 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C703" t="n">
-        <v>71.5</v>
+        <v>8.5</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -17313,10 +17313,10 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>46.2</v>
+        <v>73.8</v>
       </c>
       <c r="C704" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -17337,10 +17337,10 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>82.7</v>
+        <v>37.3</v>
       </c>
       <c r="C705" t="n">
-        <v>22.6</v>
+        <v>57.4</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -17361,10 +17361,10 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>87.3</v>
+        <v>32.7</v>
       </c>
       <c r="C706" t="n">
-        <v>13.2</v>
+        <v>66.8</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -17385,10 +17385,10 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>68.8</v>
+        <v>51.2</v>
       </c>
       <c r="C707" t="n">
-        <v>76.40000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -17409,10 +17409,10 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>80.5</v>
+        <v>39.5</v>
       </c>
       <c r="C708" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -17433,10 +17433,10 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>83.2</v>
+        <v>36.8</v>
       </c>
       <c r="C709" t="n">
-        <v>38.4</v>
+        <v>41.6</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -17457,10 +17457,10 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>73.8</v>
+        <v>46.2</v>
       </c>
       <c r="C710" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -17481,10 +17481,10 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>80.09999999999999</v>
+        <v>39.9</v>
       </c>
       <c r="C711" t="n">
-        <v>3.900000000000006</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -17505,10 +17505,10 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>39.5</v>
+        <v>80.5</v>
       </c>
       <c r="C712" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -17529,10 +17529,10 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>24.8</v>
+        <v>95.2</v>
       </c>
       <c r="C713" t="n">
-        <v>45.7</v>
+        <v>34.3</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -17553,10 +17553,10 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -17577,10 +17577,10 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C715" t="n">
-        <v>48.7</v>
+        <v>31.3</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -17601,10 +17601,10 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>66.8</v>
+        <v>53.2</v>
       </c>
       <c r="C716" t="n">
-        <v>71.90000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -17625,10 +17625,10 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>64.59999999999999</v>
+        <v>55.4</v>
       </c>
       <c r="C717" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -17649,10 +17649,10 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C718" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -17673,10 +17673,10 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>63.6</v>
+        <v>56.4</v>
       </c>
       <c r="C719" t="n">
-        <v>73.09999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -17697,10 +17697,10 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>117.1</v>
+        <v>2.9</v>
       </c>
       <c r="C720" t="n">
-        <v>68.5</v>
+        <v>11.5</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -17721,10 +17721,10 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>118.6</v>
+        <v>1.4</v>
       </c>
       <c r="C721" t="n">
-        <v>39.7</v>
+        <v>40.3</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -17745,10 +17745,10 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>82.40000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="C722" t="n">
-        <v>38.2</v>
+        <v>41.8</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -17769,10 +17769,10 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>112.6</v>
+        <v>7.4</v>
       </c>
       <c r="C723" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -17793,10 +17793,10 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>88.5</v>
+        <v>31.5</v>
       </c>
       <c r="C724" t="n">
-        <v>64.5</v>
+        <v>15.5</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -17817,10 +17817,10 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C725" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -17841,10 +17841,10 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>75.40000000000001</v>
+        <v>44.6</v>
       </c>
       <c r="C726" t="n">
-        <v>52.9</v>
+        <v>27.1</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -17865,10 +17865,10 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>24.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C727" t="n">
-        <v>27.5</v>
+        <v>52.5</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -17889,10 +17889,10 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>24.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C728" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -17913,10 +17913,10 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>20.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C729" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -17937,10 +17937,10 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>103.3</v>
+        <v>16.7</v>
       </c>
       <c r="C730" t="n">
-        <v>26.8</v>
+        <v>53.2</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -17961,10 +17961,10 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>43.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C731" t="n">
-        <v>21.9</v>
+        <v>58.1</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -17985,10 +17985,10 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C732" t="n">
-        <v>53.7</v>
+        <v>26.3</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -18009,10 +18009,10 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C733" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -18033,10 +18033,10 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>80.40000000000001</v>
+        <v>39.6</v>
       </c>
       <c r="C734" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -18057,10 +18057,10 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>14.5</v>
+        <v>105.5</v>
       </c>
       <c r="C735" t="n">
-        <v>71.90000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -18081,10 +18081,10 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>46.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C736" t="n">
-        <v>39.4</v>
+        <v>40.6</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -18105,10 +18105,10 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>57.4</v>
+        <v>62.6</v>
       </c>
       <c r="C737" t="n">
-        <v>16.2</v>
+        <v>63.8</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -18129,10 +18129,10 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>32.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C738" t="n">
-        <v>20.4</v>
+        <v>59.6</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -18153,10 +18153,10 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C739" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -18177,10 +18177,10 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C740" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -18201,10 +18201,10 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C741" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -18225,10 +18225,10 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>101.1</v>
+        <v>18.9</v>
       </c>
       <c r="C742" t="n">
-        <v>20.6</v>
+        <v>59.4</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -18249,10 +18249,10 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>38.2</v>
+        <v>81.8</v>
       </c>
       <c r="C743" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -18273,10 +18273,10 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>38.2</v>
+        <v>81.8</v>
       </c>
       <c r="C744" t="n">
-        <v>39.2</v>
+        <v>40.8</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -18297,10 +18297,10 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C745" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -18321,10 +18321,10 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C746" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -18345,10 +18345,10 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>110.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C747" t="n">
-        <v>32.7</v>
+        <v>47.3</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -18369,10 +18369,10 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>105.7</v>
+        <v>14.3</v>
       </c>
       <c r="C748" t="n">
-        <v>34.8</v>
+        <v>45.2</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -18393,10 +18393,10 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>93.3</v>
+        <v>26.7</v>
       </c>
       <c r="C749" t="n">
-        <v>59.7</v>
+        <v>20.3</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -18417,10 +18417,10 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>70.59999999999999</v>
+        <v>49.4</v>
       </c>
       <c r="C750" t="n">
-        <v>51.1</v>
+        <v>28.9</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -18441,10 +18441,10 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>100.7</v>
+        <v>19.3</v>
       </c>
       <c r="C751" t="n">
-        <v>42.3</v>
+        <v>37.7</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -18465,10 +18465,10 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>44.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C752" t="n">
-        <v>65.7</v>
+        <v>14.3</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -18489,10 +18489,10 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>90.3</v>
+        <v>29.7</v>
       </c>
       <c r="C753" t="n">
-        <v>53.7</v>
+        <v>26.3</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -18513,10 +18513,10 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>57.1</v>
+        <v>62.9</v>
       </c>
       <c r="C754" t="n">
-        <v>76.5</v>
+        <v>3.5</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -18537,10 +18537,10 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C755" t="n">
-        <v>35.9</v>
+        <v>44.1</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -18561,10 +18561,10 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>66.09999999999999</v>
+        <v>53.9</v>
       </c>
       <c r="C756" t="n">
-        <v>69.59999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -18585,10 +18585,10 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>76.3</v>
+        <v>43.7</v>
       </c>
       <c r="C757" t="n">
-        <v>13.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -18609,10 +18609,10 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C758" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -18633,10 +18633,10 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C759" t="n">
-        <v>28.1</v>
+        <v>51.9</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -18657,10 +18657,10 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>51.5</v>
+        <v>68.5</v>
       </c>
       <c r="C760" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -18681,10 +18681,10 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C761" t="n">
-        <v>35.9</v>
+        <v>44.1</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -18705,10 +18705,10 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>105.2</v>
+        <v>14.8</v>
       </c>
       <c r="C762" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -18729,10 +18729,10 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C763" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -18753,10 +18753,10 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>1.900000000000006</v>
+        <v>118.1</v>
       </c>
       <c r="C764" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -18777,10 +18777,10 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C765" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -18801,10 +18801,10 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C766" t="n">
-        <v>43.9</v>
+        <v>36.1</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -18825,10 +18825,10 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>78.59999999999999</v>
+        <v>41.4</v>
       </c>
       <c r="C767" t="n">
-        <v>63.8</v>
+        <v>16.2</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -18849,10 +18849,10 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>106.8</v>
+        <v>13.2</v>
       </c>
       <c r="C768" t="n">
-        <v>55.3</v>
+        <v>24.7</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -18873,10 +18873,10 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C769" t="n">
-        <v>79.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
